--- a/22809.xlsx
+++ b/22809.xlsx
@@ -1181,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3616,8 +3616,8 @@
       <c r="H52" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="10" t="s">
-        <v>11</v>
+      <c r="I52" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>7</v>
@@ -3995,8 +3995,8 @@
       <c r="I60" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J60" s="10" t="s">
-        <v>11</v>
+      <c r="J60" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>7</v>

--- a/22809.xlsx
+++ b/22809.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5712"/>
   </bookViews>
   <sheets>
     <sheet name="#22809" sheetId="1" r:id="rId1"/>
+    <sheet name="Bajas" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#22809'!$A$1:$W$994</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="275">
   <si>
     <t>Nro de comisión</t>
   </si>
@@ -57,19 +58,10 @@
     <t>Falcone</t>
   </si>
   <si>
-    <t>P</t>
+    <t>Masculino</t>
   </si>
   <si>
-    <t>sebas.avola@gmail.com</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Avola</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>P</t>
   </si>
   <si>
     <t>criskysel@gmail.com</t>
@@ -79,6 +71,12 @@
   </si>
   <si>
     <t>kyselka</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>cesaremorel@gmail.com</t>
@@ -306,15 +304,6 @@
     <t>Aoad</t>
   </si>
   <si>
-    <t>mau.florio@gmail.com</t>
-  </si>
-  <si>
-    <t>Mauro</t>
-  </si>
-  <si>
-    <t>Florio Aguilar</t>
-  </si>
-  <si>
     <t>josemanuc91@gmail.com</t>
   </si>
   <si>
@@ -340,15 +329,6 @@
   </si>
   <si>
     <t>Villanueva</t>
-  </si>
-  <si>
-    <t>gabriel.correale@gmail.com</t>
-  </si>
-  <si>
-    <t>Agustin Ivan Gabriel</t>
-  </si>
-  <si>
-    <t>Correale</t>
   </si>
   <si>
     <t>lucia.lbg93@gmail.com</t>
@@ -382,15 +362,6 @@
   </si>
   <si>
     <t>German Agustin</t>
-  </si>
-  <si>
-    <t>pau.florio@gmail.com</t>
-  </si>
-  <si>
-    <t>Paula Micaela</t>
-  </si>
-  <si>
-    <t>Florio</t>
   </si>
   <si>
     <t>mbelu5110@hotmail.com</t>
@@ -489,15 +460,6 @@
     <t>Marin</t>
   </si>
   <si>
-    <t>aletomagh@gmail.com</t>
-  </si>
-  <si>
-    <t>Horacio</t>
-  </si>
-  <si>
-    <t>Tomaghelli</t>
-  </si>
-  <si>
     <t>analia.farinazzo@gmail.com</t>
   </si>
   <si>
@@ -532,12 +494,6 @@
   </si>
   <si>
     <t>Brasesco</t>
-  </si>
-  <si>
-    <t>facundogg7@gmail.com</t>
-  </si>
-  <si>
-    <t>García Giachino</t>
   </si>
   <si>
     <t>pattiemmh@gmail.com</t>
@@ -600,15 +556,6 @@
     <t>Mediña</t>
   </si>
   <si>
-    <t>federico.dinucci14@gmail.com</t>
-  </si>
-  <si>
-    <t>Federico</t>
-  </si>
-  <si>
-    <t>Dinucci</t>
-  </si>
-  <si>
     <t>rebecabeatriz.reboo@gmail.com</t>
   </si>
   <si>
@@ -648,6 +595,93 @@
     <t>v</t>
   </si>
   <si>
+    <t>juanlambrus@gmail.com</t>
+  </si>
+  <si>
+    <t>Juan Andres</t>
+  </si>
+  <si>
+    <t>Lambruschini</t>
+  </si>
+  <si>
+    <t>jams_257@hotmail.com</t>
+  </si>
+  <si>
+    <t>jorge</t>
+  </si>
+  <si>
+    <t>maiden</t>
+  </si>
+  <si>
+    <t>ritar333@gmail.com</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Rentani</t>
+  </si>
+  <si>
+    <t>sebas.avola@gmail.com</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Avola</t>
+  </si>
+  <si>
+    <t>mau.florio@gmail.com</t>
+  </si>
+  <si>
+    <t>Mauro</t>
+  </si>
+  <si>
+    <t>Florio Aguilar</t>
+  </si>
+  <si>
+    <t>gabriel.correale@gmail.com</t>
+  </si>
+  <si>
+    <t>Agustin Ivan Gabriel</t>
+  </si>
+  <si>
+    <t>Correale</t>
+  </si>
+  <si>
+    <t>pau.florio@gmail.com</t>
+  </si>
+  <si>
+    <t>Paula Micaela</t>
+  </si>
+  <si>
+    <t>Florio</t>
+  </si>
+  <si>
+    <t>aletomagh@gmail.com</t>
+  </si>
+  <si>
+    <t>Horacio</t>
+  </si>
+  <si>
+    <t>Tomaghelli</t>
+  </si>
+  <si>
+    <t>facundogg7@gmail.com</t>
+  </si>
+  <si>
+    <t>García Giachino</t>
+  </si>
+  <si>
+    <t>federico.dinucci14@gmail.com</t>
+  </si>
+  <si>
+    <t>Federico</t>
+  </si>
+  <si>
+    <t>Dinucci</t>
+  </si>
+  <si>
     <t>braian.arguello@hotmail.com</t>
   </si>
   <si>
@@ -673,24 +707,6 @@
   </si>
   <si>
     <t>Martinez</t>
-  </si>
-  <si>
-    <t>juanlambrus@gmail.com</t>
-  </si>
-  <si>
-    <t>Juan Andres</t>
-  </si>
-  <si>
-    <t>Lambruschini</t>
-  </si>
-  <si>
-    <t>jams_257@hotmail.com</t>
-  </si>
-  <si>
-    <t>jorge</t>
-  </si>
-  <si>
-    <t>maiden</t>
   </si>
   <si>
     <t>belsamir@gmail.com</t>
@@ -795,23 +811,50 @@
     <t>Erásun Sgur</t>
   </si>
   <si>
-    <t>ritar333@gmail.com</t>
+    <t>-</t>
   </si>
   <si>
-    <t>Rita</t>
+    <t>matiasneil@gmail.com</t>
   </si>
   <si>
-    <t>Rentani</t>
+    <t>MATIAS AGUSTIN</t>
   </si>
   <si>
-    <t>-</t>
+    <t>NEIL</t>
+  </si>
+  <si>
+    <t>valentina.rodriguezc@gmail.com</t>
+  </si>
+  <si>
+    <t>Valentina</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>cverdun@hotmail.com</t>
+  </si>
+  <si>
+    <t>Cristina Alejandra</t>
+  </si>
+  <si>
+    <t>Verdún</t>
+  </si>
+  <si>
+    <t>melaniekrujoski@gmail.com</t>
+  </si>
+  <si>
+    <t>Melanie Belén</t>
+  </si>
+  <si>
+    <t>Krujoski</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,6 +876,17 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -931,7 +985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -969,6 +1023,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1188,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="E1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1238,7 +1298,9 @@
       <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="3">
+        <v>44823</v>
+      </c>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
@@ -1264,30 +1326,32 @@
         <v>10</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -1304,39 +1368,41 @@
         <v>22809</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
@@ -1353,39 +1419,41 @@
         <v>22809</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
@@ -1402,39 +1470,41 @@
         <v>22809</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
@@ -1451,39 +1521,41 @@
         <v>22809</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -1500,39 +1572,41 @@
         <v>22809</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -1549,39 +1623,41 @@
         <v>22809</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="E8" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -1598,39 +1674,41 @@
         <v>22809</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="E9" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -1647,39 +1725,41 @@
         <v>22809</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="E10" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
@@ -1696,39 +1776,41 @@
         <v>22809</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -1745,39 +1827,41 @@
         <v>22809</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="E12" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -1794,39 +1878,41 @@
         <v>22809</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="E13" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -1843,39 +1929,41 @@
         <v>22809</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -1892,39 +1980,41 @@
         <v>22809</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="E15" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -1941,39 +2031,41 @@
         <v>22809</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="E16" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -1990,39 +2082,41 @@
         <v>22809</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="E17" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -2039,39 +2133,41 @@
         <v>22809</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="E18" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -2088,39 +2184,41 @@
         <v>22809</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="E19" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -2137,39 +2235,41 @@
         <v>22809</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="E20" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -2186,39 +2286,41 @@
         <v>22809</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="E21" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
@@ -2235,39 +2337,41 @@
         <v>22809</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="E22" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
@@ -2284,39 +2388,41 @@
         <v>22809</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="E23" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M23" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
@@ -2333,39 +2439,41 @@
         <v>22809</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>15</v>
+        <v>83</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
@@ -2382,39 +2490,41 @@
         <v>22809</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M25" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
@@ -2431,39 +2541,41 @@
         <v>22809</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M26" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
@@ -2480,39 +2592,41 @@
         <v>22809</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>11</v>
+        <v>95</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M27" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
@@ -2529,39 +2643,41 @@
         <v>22809</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
@@ -2578,39 +2694,41 @@
         <v>22809</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>15</v>
+        <v>101</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
@@ -2627,39 +2745,41 @@
         <v>22809</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M30" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
@@ -2676,39 +2796,41 @@
         <v>22809</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M31" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
@@ -2725,39 +2847,41 @@
         <v>22809</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="E32" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M32" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
@@ -2774,39 +2898,41 @@
         <v>22809</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="D33" s="8" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M33" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
@@ -2823,39 +2949,41 @@
         <v>22809</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="E34" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M34" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
@@ -2872,39 +3000,41 @@
         <v>22809</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M35" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
@@ -2921,39 +3051,41 @@
         <v>22809</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M36" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
@@ -2970,39 +3102,41 @@
         <v>22809</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M37" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
@@ -3019,39 +3153,41 @@
         <v>22809</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M38" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
@@ -3068,39 +3204,41 @@
         <v>22809</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M39" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
@@ -3117,39 +3255,41 @@
         <v>22809</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M40" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
@@ -3166,39 +3306,41 @@
         <v>22809</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M41" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
@@ -3215,39 +3357,41 @@
         <v>22809</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M42" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
@@ -3264,39 +3408,41 @@
         <v>22809</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M43" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
@@ -3313,39 +3459,41 @@
         <v>22809</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>11</v>
+        <v>150</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M44" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
@@ -3362,39 +3510,41 @@
         <v>22809</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M45" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
@@ -3411,39 +3561,41 @@
         <v>22809</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M46" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
@@ -3460,39 +3612,41 @@
         <v>22809</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>11</v>
+        <v>162</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M47" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
@@ -3509,39 +3663,41 @@
         <v>22809</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>15</v>
+        <v>104</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M48" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
@@ -3558,39 +3714,41 @@
         <v>22809</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M49" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
@@ -3607,39 +3765,41 @@
         <v>22809</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M50" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
@@ -3656,39 +3816,41 @@
         <v>22809</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="D51" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>11</v>
+      <c r="E51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M51" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
@@ -3705,39 +3867,41 @@
         <v>22809</v>
       </c>
       <c r="B52" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>15</v>
+      <c r="E52" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M52" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
@@ -3754,39 +3918,41 @@
         <v>22809</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M53" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
@@ -3803,39 +3969,41 @@
         <v>22809</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>11</v>
+        <v>185</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M54" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
@@ -3852,39 +4020,41 @@
         <v>22809</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M55" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
@@ -3901,39 +4071,41 @@
         <v>22809</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>15</v>
+        <v>192</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M56" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
@@ -3950,39 +4122,41 @@
         <v>22809</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>11</v>
+        <v>201</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M57" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
@@ -3999,39 +4173,41 @@
         <v>22809</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>11</v>
+        <v>204</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L58" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M58" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
@@ -4048,39 +4224,41 @@
         <v>22809</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L59" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M59" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
@@ -4097,39 +4275,41 @@
         <v>22809</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>11</v>
+        <v>210</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M60" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
@@ -4146,39 +4326,41 @@
         <v>22809</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>205</v>
+        <v>58</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>11</v>
+        <v>215</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M61" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
@@ -4195,39 +4377,41 @@
         <v>22809</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L62" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M62" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
@@ -4244,39 +4428,41 @@
         <v>22809</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>11</v>
+        <v>224</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J63" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L63" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M63" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
@@ -4293,88 +4479,92 @@
         <v>22809</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J64" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L64" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="12"/>
-      <c r="S64" s="12"/>
-      <c r="T64" s="12"/>
-      <c r="U64" s="12"/>
-      <c r="V64" s="12"/>
-      <c r="W64" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="6"/>
     </row>
     <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>22809</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L65" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M65" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M65" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
@@ -4391,39 +4581,41 @@
         <v>22809</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>15</v>
+        <v>92</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L66" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M66" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M66" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
@@ -4440,39 +4632,41 @@
         <v>22809</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L67" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M67" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
@@ -4489,39 +4683,41 @@
         <v>22809</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L68" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M68" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
@@ -4538,39 +4734,41 @@
         <v>22809</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="D69" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>157</v>
-      </c>
       <c r="E69" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L69" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M69" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
@@ -4587,39 +4785,41 @@
         <v>22809</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J70" s="9" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L70" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M70" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
@@ -4636,39 +4836,41 @@
         <v>22809</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K71" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L71" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M71" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
@@ -4685,49 +4887,51 @@
         <v>22809</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>11</v>
+        <v>198</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J72" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L72" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="10"/>
-      <c r="S72" s="10"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="10"/>
-      <c r="W72" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="13"/>
     </row>
     <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
@@ -4743,30 +4947,32 @@
         <v>213</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="L73" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M73" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
@@ -4783,39 +4989,41 @@
         <v>22809</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J74" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M74" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
@@ -4832,39 +5040,41 @@
         <v>22809</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K75" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L75" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M75" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
@@ -4881,39 +5091,41 @@
         <v>22809</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K76" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L76" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M76" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
@@ -4930,39 +5142,41 @@
         <v>22809</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K77" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L77" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M77" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
@@ -4979,39 +5193,41 @@
         <v>22809</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M78" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="M78" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
@@ -5028,39 +5244,41 @@
         <v>22809</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M79" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="M79" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
@@ -5077,39 +5295,41 @@
         <v>22809</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K80" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M80" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="M80" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
@@ -5126,39 +5346,41 @@
         <v>22809</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K81" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M81" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="M81" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
@@ -5175,39 +5397,41 @@
         <v>22809</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M82" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="M82" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
@@ -5224,39 +5448,41 @@
         <v>22809</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M83" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="M83" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
@@ -5273,39 +5499,41 @@
         <v>22809</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K84" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M84" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
@@ -5322,39 +5550,41 @@
         <v>22809</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K85" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L85" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M85" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="M85" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
@@ -5371,39 +5601,41 @@
         <v>22809</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K86" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L86" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M86" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
@@ -6342,7 +6574,7 @@
     </row>
     <row r="124" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -28120,10 +28352,118 @@
   </sheetData>
   <autoFilter ref="A1:W994">
     <sortState ref="A2:Z994">
-      <sortCondition ref="L1:L994"/>
+      <sortCondition ref="M1:M994"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15">
+        <v>22809</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="15">
+        <v>40462753</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="15">
+        <v>2392570397</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>22809</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="8">
+        <v>95256890</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1133796577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>22809</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" s="8">
+        <v>32451073</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1162527899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>22809</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="8">
+        <v>40913717</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1157199655</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/22809.xlsx
+++ b/22809.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="#22809" sheetId="1" r:id="rId1"/>
-    <sheet name="Bajas" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#22809'!$A$1:$W$994</definedName>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="261">
   <si>
     <t>Nro de comisión</t>
   </si>
@@ -58,9 +57,6 @@
     <t>Falcone</t>
   </si>
   <si>
-    <t>Masculino</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -71,9 +67,6 @@
   </si>
   <si>
     <t>kyselka</t>
-  </si>
-  <si>
-    <t>Femenino</t>
   </si>
   <si>
     <t>A</t>
@@ -813,48 +806,12 @@
   <si>
     <t>-</t>
   </si>
-  <si>
-    <t>matiasneil@gmail.com</t>
-  </si>
-  <si>
-    <t>MATIAS AGUSTIN</t>
-  </si>
-  <si>
-    <t>NEIL</t>
-  </si>
-  <si>
-    <t>valentina.rodriguezc@gmail.com</t>
-  </si>
-  <si>
-    <t>Valentina</t>
-  </si>
-  <si>
-    <t>Rodriguez</t>
-  </si>
-  <si>
-    <t>cverdun@hotmail.com</t>
-  </si>
-  <si>
-    <t>Cristina Alejandra</t>
-  </si>
-  <si>
-    <t>Verdún</t>
-  </si>
-  <si>
-    <t>melaniekrujoski@gmail.com</t>
-  </si>
-  <si>
-    <t>Melanie Belén</t>
-  </si>
-  <si>
-    <t>Krujoski</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,17 +833,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -985,7 +931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1023,12 +969,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1326,31 +1266,31 @@
         <v>10</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -1368,40 +1308,40 @@
         <v>22809</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -1419,40 +1359,40 @@
         <v>22809</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -1470,40 +1410,40 @@
         <v>22809</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -1521,40 +1461,40 @@
         <v>22809</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
@@ -1572,40 +1512,40 @@
         <v>22809</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="E7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
@@ -1623,40 +1563,40 @@
         <v>22809</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="E8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
@@ -1674,40 +1614,40 @@
         <v>22809</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -1725,40 +1665,40 @@
         <v>22809</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="E10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -1776,40 +1716,40 @@
         <v>22809</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
@@ -1827,40 +1767,40 @@
         <v>22809</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="E12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
@@ -1878,40 +1818,40 @@
         <v>22809</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="E13" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -1929,40 +1869,40 @@
         <v>22809</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
@@ -1980,40 +1920,40 @@
         <v>22809</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="E15" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -2031,40 +1971,40 @@
         <v>22809</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="E16" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
@@ -2082,40 +2022,40 @@
         <v>22809</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="E17" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -2133,40 +2073,40 @@
         <v>22809</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="E18" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
@@ -2184,40 +2124,40 @@
         <v>22809</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="E19" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -2235,40 +2175,40 @@
         <v>22809</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="E20" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -2286,40 +2226,40 @@
         <v>22809</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="E21" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -2337,40 +2277,40 @@
         <v>22809</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="E22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
@@ -2388,40 +2328,40 @@
         <v>22809</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="E23" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
@@ -2439,40 +2379,40 @@
         <v>22809</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="E24" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -2490,40 +2430,40 @@
         <v>22809</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="E25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
@@ -2541,40 +2481,40 @@
         <v>22809</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="E26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
@@ -2592,40 +2532,40 @@
         <v>22809</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="E27" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
@@ -2643,40 +2583,40 @@
         <v>22809</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>98</v>
-      </c>
       <c r="E28" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
@@ -2694,40 +2634,40 @@
         <v>22809</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="E29" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
@@ -2745,40 +2685,40 @@
         <v>22809</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="E30" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
@@ -2796,40 +2736,40 @@
         <v>22809</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="E31" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
@@ -2847,40 +2787,40 @@
         <v>22809</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="E32" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
@@ -2898,40 +2838,40 @@
         <v>22809</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
@@ -2949,40 +2889,40 @@
         <v>22809</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="E34" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
@@ -3000,40 +2940,40 @@
         <v>22809</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
@@ -3051,40 +2991,40 @@
         <v>22809</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="E36" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
@@ -3102,40 +3042,40 @@
         <v>22809</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="E37" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -3153,40 +3093,40 @@
         <v>22809</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>126</v>
-      </c>
       <c r="E38" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
@@ -3204,40 +3144,40 @@
         <v>22809</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="E39" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
@@ -3255,40 +3195,40 @@
         <v>22809</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="E40" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
@@ -3306,40 +3246,40 @@
         <v>22809</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>135</v>
-      </c>
       <c r="E41" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
@@ -3357,40 +3297,40 @@
         <v>22809</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="E42" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
@@ -3408,40 +3348,40 @@
         <v>22809</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="E43" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
@@ -3459,40 +3399,40 @@
         <v>22809</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>150</v>
-      </c>
       <c r="E44" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
@@ -3510,40 +3450,40 @@
         <v>22809</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>153</v>
-      </c>
       <c r="E45" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
@@ -3561,40 +3501,40 @@
         <v>22809</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>159</v>
-      </c>
       <c r="E46" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
@@ -3612,40 +3552,40 @@
         <v>22809</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="E47" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
@@ -3663,40 +3603,40 @@
         <v>22809</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
@@ -3714,40 +3654,40 @@
         <v>22809</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>167</v>
-      </c>
       <c r="E49" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
@@ -3765,40 +3705,40 @@
         <v>22809</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>170</v>
-      </c>
       <c r="E50" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
@@ -3816,40 +3756,40 @@
         <v>22809</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>173</v>
-      </c>
       <c r="E51" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
@@ -3867,40 +3807,40 @@
         <v>22809</v>
       </c>
       <c r="B52" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="E52" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
@@ -3918,40 +3858,40 @@
         <v>22809</v>
       </c>
       <c r="B53" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="E53" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
@@ -3969,40 +3909,40 @@
         <v>22809</v>
       </c>
       <c r="B54" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="E54" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
@@ -4020,40 +3960,40 @@
         <v>22809</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="E55" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>189</v>
-      </c>
       <c r="G55" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
@@ -4071,40 +4011,40 @@
         <v>22809</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="E56" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
@@ -4122,40 +4062,40 @@
         <v>22809</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>201</v>
-      </c>
       <c r="E57" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
@@ -4173,40 +4113,40 @@
         <v>22809</v>
       </c>
       <c r="B58" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="E58" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
@@ -4224,40 +4164,40 @@
         <v>22809</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>207</v>
-      </c>
       <c r="E59" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
@@ -4275,40 +4215,40 @@
         <v>22809</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="E60" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
@@ -4326,40 +4266,40 @@
         <v>22809</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
@@ -4377,40 +4317,40 @@
         <v>22809</v>
       </c>
       <c r="B62" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>221</v>
-      </c>
       <c r="E62" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
@@ -4428,40 +4368,40 @@
         <v>22809</v>
       </c>
       <c r="B63" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>224</v>
-      </c>
       <c r="E63" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L63" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
@@ -4479,40 +4419,40 @@
         <v>22809</v>
       </c>
       <c r="B64" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>227</v>
-      </c>
       <c r="E64" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L64" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
@@ -4530,40 +4470,40 @@
         <v>22809</v>
       </c>
       <c r="B65" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="E65" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
@@ -4581,40 +4521,40 @@
         <v>22809</v>
       </c>
       <c r="B66" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="E66" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
@@ -4632,40 +4572,40 @@
         <v>22809</v>
       </c>
       <c r="B67" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="E67" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
@@ -4683,40 +4623,40 @@
         <v>22809</v>
       </c>
       <c r="B68" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="E68" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M68" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
@@ -4734,40 +4674,40 @@
         <v>22809</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>156</v>
-      </c>
       <c r="E69" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
@@ -4785,40 +4725,40 @@
         <v>22809</v>
       </c>
       <c r="B70" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>179</v>
-      </c>
       <c r="E70" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
@@ -4836,40 +4776,40 @@
         <v>22809</v>
       </c>
       <c r="B71" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>195</v>
-      </c>
       <c r="E71" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
@@ -4887,40 +4827,40 @@
         <v>22809</v>
       </c>
       <c r="B72" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>198</v>
-      </c>
       <c r="E72" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N72" s="12"/>
       <c r="O72" s="12"/>
@@ -4938,40 +4878,40 @@
         <v>22809</v>
       </c>
       <c r="B73" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>213</v>
-      </c>
       <c r="E73" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L73" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
@@ -4989,40 +4929,40 @@
         <v>22809</v>
       </c>
       <c r="B74" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="E74" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
@@ -5040,40 +4980,40 @@
         <v>22809</v>
       </c>
       <c r="B75" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>230</v>
-      </c>
       <c r="E75" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K75" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L75" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M75" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
@@ -5091,40 +5031,40 @@
         <v>22809</v>
       </c>
       <c r="B76" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D76" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>233</v>
-      </c>
       <c r="E76" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K76" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L76" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
@@ -5142,40 +5082,40 @@
         <v>22809</v>
       </c>
       <c r="B77" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>236</v>
-      </c>
       <c r="E77" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K77" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L77" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
@@ -5193,40 +5133,40 @@
         <v>22809</v>
       </c>
       <c r="B78" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D78" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C78" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>239</v>
-      </c>
       <c r="E78" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
@@ -5244,40 +5184,40 @@
         <v>22809</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
@@ -5295,40 +5235,40 @@
         <v>22809</v>
       </c>
       <c r="B80" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C80" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>244</v>
-      </c>
       <c r="E80" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K80" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
@@ -5346,40 +5286,40 @@
         <v>22809</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K81" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M81" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
@@ -5397,40 +5337,40 @@
         <v>22809</v>
       </c>
       <c r="B82" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D82" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C82" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>249</v>
-      </c>
       <c r="E82" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M82" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
@@ -5448,40 +5388,40 @@
         <v>22809</v>
       </c>
       <c r="B83" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D83" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>252</v>
-      </c>
       <c r="E83" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
@@ -5499,40 +5439,40 @@
         <v>22809</v>
       </c>
       <c r="B84" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C84" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>255</v>
-      </c>
       <c r="E84" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K84" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M84" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
@@ -5550,40 +5490,40 @@
         <v>22809</v>
       </c>
       <c r="B85" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D85" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C85" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>258</v>
-      </c>
       <c r="E85" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K85" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L85" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M85" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
@@ -5601,40 +5541,40 @@
         <v>22809</v>
       </c>
       <c r="B86" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D86" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C86" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>261</v>
-      </c>
       <c r="E86" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K86" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L86" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M86" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
@@ -6574,7 +6514,7 @@
     </row>
     <row r="124" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -28358,112 +28298,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15">
-        <v>22809</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="E1" s="15">
-        <v>40462753</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="15">
-        <v>2392570397</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>22809</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E2" s="8">
-        <v>95256890</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1133796577</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>22809</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E3" s="8">
-        <v>32451073</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1162527899</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>22809</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" s="8">
-        <v>40913717</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1157199655</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/22809.xlsx
+++ b/22809.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5712"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="#22809" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="261">
   <si>
     <t>Nro de comisión</t>
   </si>
@@ -60,6 +60,18 @@
     <t>P</t>
   </si>
   <si>
+    <t>sebas.avola@gmail.com</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Avola</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>criskysel@gmail.com</t>
   </si>
   <si>
@@ -67,9 +79,6 @@
   </si>
   <si>
     <t>kyselka</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>cesaremorel@gmail.com</t>
@@ -297,6 +306,15 @@
     <t>Aoad</t>
   </si>
   <si>
+    <t>mau.florio@gmail.com</t>
+  </si>
+  <si>
+    <t>Mauro</t>
+  </si>
+  <si>
+    <t>Florio Aguilar</t>
+  </si>
+  <si>
     <t>josemanuc91@gmail.com</t>
   </si>
   <si>
@@ -322,6 +340,15 @@
   </si>
   <si>
     <t>Villanueva</t>
+  </si>
+  <si>
+    <t>gabriel.correale@gmail.com</t>
+  </si>
+  <si>
+    <t>Agustin Ivan Gabriel</t>
+  </si>
+  <si>
+    <t>Correale</t>
   </si>
   <si>
     <t>lucia.lbg93@gmail.com</t>
@@ -355,6 +382,15 @@
   </si>
   <si>
     <t>German Agustin</t>
+  </si>
+  <si>
+    <t>pau.florio@gmail.com</t>
+  </si>
+  <si>
+    <t>Paula Micaela</t>
+  </si>
+  <si>
+    <t>Florio</t>
   </si>
   <si>
     <t>mbelu5110@hotmail.com</t>
@@ -453,6 +489,15 @@
     <t>Marin</t>
   </si>
   <si>
+    <t>aletomagh@gmail.com</t>
+  </si>
+  <si>
+    <t>Horacio</t>
+  </si>
+  <si>
+    <t>Tomaghelli</t>
+  </si>
+  <si>
     <t>analia.farinazzo@gmail.com</t>
   </si>
   <si>
@@ -487,6 +532,12 @@
   </si>
   <si>
     <t>Brasesco</t>
+  </si>
+  <si>
+    <t>facundogg7@gmail.com</t>
+  </si>
+  <si>
+    <t>García Giachino</t>
   </si>
   <si>
     <t>pattiemmh@gmail.com</t>
@@ -549,6 +600,15 @@
     <t>Mediña</t>
   </si>
   <si>
+    <t>federico.dinucci14@gmail.com</t>
+  </si>
+  <si>
+    <t>Federico</t>
+  </si>
+  <si>
+    <t>Dinucci</t>
+  </si>
+  <si>
     <t>rebecabeatriz.reboo@gmail.com</t>
   </si>
   <si>
@@ -588,93 +648,6 @@
     <t>v</t>
   </si>
   <si>
-    <t>juanlambrus@gmail.com</t>
-  </si>
-  <si>
-    <t>Juan Andres</t>
-  </si>
-  <si>
-    <t>Lambruschini</t>
-  </si>
-  <si>
-    <t>jams_257@hotmail.com</t>
-  </si>
-  <si>
-    <t>jorge</t>
-  </si>
-  <si>
-    <t>maiden</t>
-  </si>
-  <si>
-    <t>ritar333@gmail.com</t>
-  </si>
-  <si>
-    <t>Rita</t>
-  </si>
-  <si>
-    <t>Rentani</t>
-  </si>
-  <si>
-    <t>sebas.avola@gmail.com</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Avola</t>
-  </si>
-  <si>
-    <t>mau.florio@gmail.com</t>
-  </si>
-  <si>
-    <t>Mauro</t>
-  </si>
-  <si>
-    <t>Florio Aguilar</t>
-  </si>
-  <si>
-    <t>gabriel.correale@gmail.com</t>
-  </si>
-  <si>
-    <t>Agustin Ivan Gabriel</t>
-  </si>
-  <si>
-    <t>Correale</t>
-  </si>
-  <si>
-    <t>pau.florio@gmail.com</t>
-  </si>
-  <si>
-    <t>Paula Micaela</t>
-  </si>
-  <si>
-    <t>Florio</t>
-  </si>
-  <si>
-    <t>aletomagh@gmail.com</t>
-  </si>
-  <si>
-    <t>Horacio</t>
-  </si>
-  <si>
-    <t>Tomaghelli</t>
-  </si>
-  <si>
-    <t>facundogg7@gmail.com</t>
-  </si>
-  <si>
-    <t>García Giachino</t>
-  </si>
-  <si>
-    <t>federico.dinucci14@gmail.com</t>
-  </si>
-  <si>
-    <t>Federico</t>
-  </si>
-  <si>
-    <t>Dinucci</t>
-  </si>
-  <si>
     <t>braian.arguello@hotmail.com</t>
   </si>
   <si>
@@ -700,6 +673,24 @@
   </si>
   <si>
     <t>Martinez</t>
+  </si>
+  <si>
+    <t>juanlambrus@gmail.com</t>
+  </si>
+  <si>
+    <t>Juan Andres</t>
+  </si>
+  <si>
+    <t>Lambruschini</t>
+  </si>
+  <si>
+    <t>jams_257@hotmail.com</t>
+  </si>
+  <si>
+    <t>jorge</t>
+  </si>
+  <si>
+    <t>maiden</t>
   </si>
   <si>
     <t>belsamir@gmail.com</t>
@@ -802,6 +793,15 @@
   </si>
   <si>
     <t>Erásun Sgur</t>
+  </si>
+  <si>
+    <t>ritar333@gmail.com</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Rentani</t>
   </si>
   <si>
     <t>-</t>
@@ -1188,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="Q58" sqref="Q58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1241,7 +1241,9 @@
       <c r="M1" s="3">
         <v>44823</v>
       </c>
-      <c r="N1" s="5"/>
+      <c r="N1" s="3">
+        <v>44825</v>
+      </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
@@ -1292,7 +1294,9 @@
       <c r="M2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="10"/>
+      <c r="N2" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
@@ -1308,19 +1312,19 @@
         <v>22809</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>11</v>
@@ -1343,7 +1347,9 @@
       <c r="M3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="10"/>
+      <c r="N3" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
@@ -1359,13 +1365,13 @@
         <v>22809</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>11</v>
@@ -1394,7 +1400,9 @@
       <c r="M4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
@@ -1410,16 +1418,16 @@
         <v>22809</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>11</v>
@@ -1445,7 +1453,9 @@
       <c r="M5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
@@ -1461,16 +1471,16 @@
         <v>22809</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>11</v>
@@ -1496,7 +1506,9 @@
       <c r="M6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
@@ -1512,13 +1524,13 @@
         <v>22809</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>11</v>
@@ -1547,7 +1559,9 @@
       <c r="M7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="10"/>
+      <c r="N7" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
@@ -1563,13 +1577,13 @@
         <v>22809</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>11</v>
@@ -1598,7 +1612,9 @@
       <c r="M8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="10"/>
+      <c r="N8" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
@@ -1614,19 +1630,19 @@
         <v>22809</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>11</v>
+      <c r="F9" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>11</v>
@@ -1649,7 +1665,9 @@
       <c r="M9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="10"/>
+      <c r="N9" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
@@ -1665,19 +1683,19 @@
         <v>22809</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>15</v>
+      <c r="F10" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>11</v>
@@ -1700,7 +1718,9 @@
       <c r="M10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="10"/>
+      <c r="N10" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
@@ -1716,13 +1736,13 @@
         <v>22809</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>11</v>
@@ -1751,7 +1771,9 @@
       <c r="M11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="10"/>
+      <c r="N11" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
@@ -1767,16 +1789,16 @@
         <v>22809</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>11</v>
@@ -1802,7 +1824,9 @@
       <c r="M12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="10"/>
+      <c r="N12" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
@@ -1818,16 +1842,16 @@
         <v>22809</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>11</v>
@@ -1853,7 +1877,9 @@
       <c r="M13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="10"/>
+      <c r="N13" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
@@ -1869,13 +1895,13 @@
         <v>22809</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>11</v>
@@ -1904,7 +1930,9 @@
       <c r="M14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="10"/>
+      <c r="N14" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
@@ -1920,13 +1948,13 @@
         <v>22809</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>11</v>
@@ -1955,7 +1983,9 @@
       <c r="M15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="10"/>
+      <c r="N15" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
@@ -1971,13 +2001,13 @@
         <v>22809</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>11</v>
@@ -2006,7 +2036,9 @@
       <c r="M16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="10"/>
+      <c r="N16" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
@@ -2022,22 +2054,22 @@
         <v>22809</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>11</v>
+        <v>66</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>11</v>
+      <c r="G17" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>11</v>
@@ -2057,7 +2089,9 @@
       <c r="M17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="10"/>
+      <c r="N17" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
@@ -2073,13 +2107,13 @@
         <v>22809</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>11</v>
@@ -2108,7 +2142,9 @@
       <c r="M18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="10"/>
+      <c r="N18" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
@@ -2124,22 +2160,22 @@
         <v>22809</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>15</v>
+        <v>72</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>15</v>
+      <c r="G19" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>11</v>
@@ -2159,7 +2195,9 @@
       <c r="M19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N19" s="10"/>
+      <c r="N19" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
@@ -2175,13 +2213,13 @@
         <v>22809</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>11</v>
@@ -2210,7 +2248,9 @@
       <c r="M20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="10"/>
+      <c r="N20" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
@@ -2226,16 +2266,16 @@
         <v>22809</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>11</v>
+        <v>78</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>11</v>
@@ -2261,7 +2301,9 @@
       <c r="M21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="10"/>
+      <c r="N21" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
@@ -2277,13 +2319,13 @@
         <v>22809</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>11</v>
@@ -2312,7 +2354,9 @@
       <c r="M22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N22" s="10"/>
+      <c r="N22" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
@@ -2328,16 +2372,16 @@
         <v>22809</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>15</v>
+        <v>87</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>11</v>
@@ -2363,7 +2407,9 @@
       <c r="M23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N23" s="10"/>
+      <c r="N23" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
@@ -2379,13 +2425,13 @@
         <v>22809</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>11</v>
@@ -2414,7 +2460,9 @@
       <c r="M24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N24" s="10"/>
+      <c r="N24" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
@@ -2430,16 +2478,16 @@
         <v>22809</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>11</v>
+        <v>99</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>11</v>
@@ -2465,7 +2513,9 @@
       <c r="M25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N25" s="10"/>
+      <c r="N25" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
@@ -2481,13 +2531,13 @@
         <v>22809</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>11</v>
@@ -2516,7 +2566,9 @@
       <c r="M26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N26" s="10"/>
+      <c r="N26" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
@@ -2532,16 +2584,16 @@
         <v>22809</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>15</v>
+        <v>105</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>11</v>
@@ -2567,7 +2619,9 @@
       <c r="M27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N27" s="10"/>
+      <c r="N27" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
@@ -2583,13 +2637,13 @@
         <v>22809</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>11</v>
@@ -2618,7 +2672,9 @@
       <c r="M28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N28" s="10"/>
+      <c r="N28" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
@@ -2634,13 +2690,13 @@
         <v>22809</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>11</v>
@@ -2669,7 +2725,9 @@
       <c r="M29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N29" s="10"/>
+      <c r="N29" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
@@ -2685,13 +2743,13 @@
         <v>22809</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>11</v>
@@ -2720,7 +2778,9 @@
       <c r="M30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N30" s="10"/>
+      <c r="N30" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
@@ -2736,13 +2796,13 @@
         <v>22809</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>11</v>
@@ -2771,7 +2831,9 @@
       <c r="M31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N31" s="10"/>
+      <c r="N31" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
@@ -2787,13 +2849,13 @@
         <v>22809</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>11</v>
@@ -2822,7 +2884,9 @@
       <c r="M32" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N32" s="10"/>
+      <c r="N32" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
@@ -2838,13 +2902,13 @@
         <v>22809</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>11</v>
@@ -2873,7 +2937,9 @@
       <c r="M33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N33" s="10"/>
+      <c r="N33" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
@@ -2889,13 +2955,13 @@
         <v>22809</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>11</v>
@@ -2924,7 +2990,9 @@
       <c r="M34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N34" s="10"/>
+      <c r="N34" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
@@ -2940,19 +3008,19 @@
         <v>22809</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>11</v>
+      <c r="F35" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>11</v>
@@ -2975,7 +3043,9 @@
       <c r="M35" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N35" s="10"/>
+      <c r="N35" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
@@ -2991,13 +3061,13 @@
         <v>22809</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>11</v>
@@ -3026,7 +3096,9 @@
       <c r="M36" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N36" s="10"/>
+      <c r="N36" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
@@ -3042,13 +3114,13 @@
         <v>22809</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>11</v>
@@ -3077,7 +3149,9 @@
       <c r="M37" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N37" s="10"/>
+      <c r="N37" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
@@ -3093,19 +3167,19 @@
         <v>22809</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>15</v>
+      <c r="F38" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>11</v>
@@ -3128,7 +3202,9 @@
       <c r="M38" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N38" s="10"/>
+      <c r="N38" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
@@ -3144,19 +3220,19 @@
         <v>22809</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>11</v>
+      <c r="F39" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>11</v>
@@ -3164,8 +3240,8 @@
       <c r="H39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="9" t="s">
-        <v>11</v>
+      <c r="I39" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="J39" s="9" t="s">
         <v>11</v>
@@ -3179,7 +3255,9 @@
       <c r="M39" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N39" s="10"/>
+      <c r="N39" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
@@ -3195,13 +3273,13 @@
         <v>22809</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>11</v>
@@ -3212,8 +3290,8 @@
       <c r="G40" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="9" t="s">
-        <v>11</v>
+      <c r="H40" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>11</v>
@@ -3230,7 +3308,9 @@
       <c r="M40" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N40" s="10"/>
+      <c r="N40" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
@@ -3246,28 +3326,28 @@
         <v>22809</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>11</v>
+        <v>163</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>11</v>
+      <c r="H41" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="J41" s="9" t="s">
         <v>11</v>
@@ -3281,7 +3361,9 @@
       <c r="M41" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N41" s="10"/>
+      <c r="N41" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
@@ -3297,19 +3379,19 @@
         <v>22809</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>15</v>
+      <c r="F42" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>11</v>
@@ -3317,8 +3399,8 @@
       <c r="H42" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="11" t="s">
-        <v>15</v>
+      <c r="I42" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>11</v>
@@ -3332,7 +3414,9 @@
       <c r="M42" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N42" s="10"/>
+      <c r="N42" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
@@ -3348,13 +3432,13 @@
         <v>22809</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>11</v>
@@ -3365,8 +3449,8 @@
       <c r="G43" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="11" t="s">
-        <v>15</v>
+      <c r="H43" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>11</v>
@@ -3383,7 +3467,9 @@
       <c r="M43" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N43" s="10"/>
+      <c r="N43" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
@@ -3399,32 +3485,32 @@
         <v>22809</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="K44" s="9" t="s">
         <v>11</v>
       </c>
@@ -3434,7 +3520,9 @@
       <c r="M44" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N44" s="10"/>
+      <c r="N44" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
@@ -3450,13 +3538,13 @@
         <v>22809</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>11</v>
@@ -3473,8 +3561,8 @@
       <c r="I45" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J45" s="9" t="s">
-        <v>11</v>
+      <c r="J45" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="K45" s="9" t="s">
         <v>11</v>
@@ -3485,7 +3573,9 @@
       <c r="M45" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N45" s="10"/>
+      <c r="N45" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
@@ -3501,13 +3591,13 @@
         <v>22809</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>11</v>
@@ -3515,8 +3605,8 @@
       <c r="F46" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>11</v>
+      <c r="G46" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>11</v>
@@ -3524,8 +3614,8 @@
       <c r="I46" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J46" s="9" t="s">
-        <v>11</v>
+      <c r="J46" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="K46" s="9" t="s">
         <v>11</v>
@@ -3536,7 +3626,9 @@
       <c r="M46" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N46" s="10"/>
+      <c r="N46" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
@@ -3552,16 +3644,16 @@
         <v>22809</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>15</v>
+        <v>185</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>11</v>
@@ -3575,8 +3667,8 @@
       <c r="I47" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J47" s="11" t="s">
-        <v>15</v>
+      <c r="J47" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="K47" s="9" t="s">
         <v>11</v>
@@ -3587,7 +3679,9 @@
       <c r="M47" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N47" s="10"/>
+      <c r="N47" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
@@ -3603,19 +3697,19 @@
         <v>22809</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>11</v>
@@ -3638,7 +3732,9 @@
       <c r="M48" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N48" s="10"/>
+      <c r="N48" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
@@ -3654,28 +3750,28 @@
         <v>22809</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="11" t="s">
+      <c r="F49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>11</v>
+      <c r="G49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="J49" s="11" t="s">
         <v>15</v>
@@ -3689,7 +3785,9 @@
       <c r="M49" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N49" s="10"/>
+      <c r="N49" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
@@ -3705,19 +3803,19 @@
         <v>22809</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="9" t="s">
-        <v>11</v>
+      <c r="F50" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>11</v>
@@ -3728,11 +3826,11 @@
       <c r="I50" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J50" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>11</v>
+      <c r="J50" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="L50" s="9" t="s">
         <v>11</v>
@@ -3740,7 +3838,9 @@
       <c r="M50" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N50" s="10"/>
+      <c r="N50" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
@@ -3756,42 +3856,44 @@
         <v>22809</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G51" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H51" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K51" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L51" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="M51" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N51" s="10"/>
+      <c r="N51" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
@@ -3807,16 +3909,16 @@
         <v>22809</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>11</v>
+        <v>96</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>11</v>
@@ -3836,13 +3938,15 @@
       <c r="K52" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L52" s="9" t="s">
-        <v>11</v>
+      <c r="L52" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="M52" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N52" s="10"/>
+      <c r="N52" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
@@ -3858,42 +3962,44 @@
         <v>22809</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I53" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L53" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="M53" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N53" s="10"/>
+      <c r="N53" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
@@ -3909,42 +4015,44 @@
         <v>22809</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>182</v>
+        <v>59</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E54" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F54" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>11</v>
+      <c r="H54" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="J54" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K54" s="11" t="s">
+      <c r="K54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L54" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="M54" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N54" s="10"/>
+      <c r="N54" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
@@ -3960,19 +4068,19 @@
         <v>22809</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>187</v>
+        <v>210</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>11</v>
@@ -3989,13 +4097,15 @@
       <c r="K55" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L55" s="9" t="s">
-        <v>11</v>
+      <c r="L55" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="M55" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N55" s="10"/>
+      <c r="N55" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
@@ -4011,16 +4121,16 @@
         <v>22809</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>11</v>
+        <v>81</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>15</v>
@@ -4034,19 +4144,21 @@
       <c r="I56" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="J56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M56" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K56" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L56" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N56" s="10"/>
+      <c r="N56" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
@@ -4062,42 +4174,44 @@
         <v>22809</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E57" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L57" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N57" s="10"/>
+      <c r="N57" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
@@ -4113,42 +4227,44 @@
         <v>22809</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E58" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="J58" s="9" t="s">
         <v>11</v>
       </c>
       <c r="K58" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L58" s="11" t="s">
+      <c r="L58" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M58" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M58" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N58" s="10"/>
+      <c r="N58" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
@@ -4164,13 +4280,13 @@
         <v>22809</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>11</v>
@@ -4178,28 +4294,30 @@
       <c r="F59" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M59" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H59" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L59" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N59" s="10"/>
+      <c r="N59" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
@@ -4215,93 +4333,97 @@
         <v>22809</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E60" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L60" s="11" t="s">
+      <c r="F60" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="6"/>
+      <c r="H60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="13"/>
     </row>
     <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>22809</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="11" t="s">
+      <c r="F61" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I61" s="11" t="s">
+      <c r="G61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N61" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L61" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
@@ -4317,13 +4439,13 @@
         <v>22809</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>217</v>
+        <v>61</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>219</v>
+        <v>63</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>11</v>
@@ -4343,16 +4465,18 @@
       <c r="J62" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="11" t="s">
+      <c r="K62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N62" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L62" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M62" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N62" s="10"/>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
@@ -4368,42 +4492,44 @@
         <v>22809</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N63" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G63" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L63" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M63" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
@@ -4419,42 +4545,44 @@
         <v>22809</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E64" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N64" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L64" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N64" s="10"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
@@ -4470,42 +4598,44 @@
         <v>22809</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J65" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="L65" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M65" s="11" t="s">
+      <c r="M65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N65" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N65" s="10"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
@@ -4521,19 +4651,19 @@
         <v>22809</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>11</v>
+        <v>206</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>207</v>
       </c>
       <c r="G66" s="9" t="s">
         <v>11</v>
@@ -4547,16 +4677,18 @@
       <c r="J66" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K66" s="9" t="s">
-        <v>11</v>
+      <c r="K66" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="L66" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N66" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N66" s="10"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
@@ -4572,19 +4704,19 @@
         <v>22809</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F67" s="9" t="s">
-        <v>11</v>
+      <c r="F67" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G67" s="9" t="s">
         <v>11</v>
@@ -4601,13 +4733,15 @@
       <c r="K67" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L67" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M67" s="11" t="s">
+      <c r="L67" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N67" s="10"/>
+      <c r="M67" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
@@ -4623,19 +4757,19 @@
         <v>22809</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="9" t="s">
-        <v>11</v>
+      <c r="F68" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G68" s="9" t="s">
         <v>11</v>
@@ -4643,22 +4777,24 @@
       <c r="H68" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="11" t="s">
+      <c r="I68" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J68" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L68" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M68" s="11" t="s">
+      <c r="L68" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N68" s="10"/>
+      <c r="M68" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
       <c r="Q68" s="10"/>
@@ -4674,42 +4810,44 @@
         <v>22809</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>11</v>
+        <v>216</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H69" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>11</v>
+      <c r="H69" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K69" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M69" s="11" t="s">
+      <c r="K69" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N69" s="10"/>
+      <c r="L69" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
       <c r="Q69" s="10"/>
@@ -4725,13 +4863,13 @@
         <v>22809</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>11</v>
@@ -4742,14 +4880,14 @@
       <c r="G70" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H70" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J70" s="11" t="s">
-        <v>15</v>
+      <c r="H70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="K70" s="9" t="s">
         <v>11</v>
@@ -4760,7 +4898,9 @@
       <c r="M70" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N70" s="10"/>
+      <c r="N70" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
@@ -4776,25 +4916,25 @@
         <v>22809</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E71" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="I71" s="11" t="s">
         <v>15</v>
@@ -4802,8 +4942,8 @@
       <c r="J71" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K71" s="11" t="s">
-        <v>15</v>
+      <c r="K71" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="L71" s="9" t="s">
         <v>11</v>
@@ -4811,7 +4951,9 @@
       <c r="M71" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N71" s="10"/>
+      <c r="N71" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
@@ -4827,13 +4969,13 @@
         <v>22809</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>15</v>
@@ -4841,11 +4983,11 @@
       <c r="F72" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>15</v>
+      <c r="G72" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="I72" s="11" t="s">
         <v>15</v>
@@ -4862,29 +5004,31 @@
       <c r="M72" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="12"/>
-      <c r="S72" s="12"/>
-      <c r="T72" s="12"/>
-      <c r="U72" s="12"/>
-      <c r="V72" s="12"/>
-      <c r="W72" s="13"/>
+      <c r="N72" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="6"/>
     </row>
     <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>22809</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>11</v>
@@ -4913,7 +5057,9 @@
       <c r="M73" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N73" s="10"/>
+      <c r="N73" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
       <c r="Q73" s="10"/>
@@ -4929,13 +5075,13 @@
         <v>22809</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>15</v>
@@ -4964,7 +5110,9 @@
       <c r="M74" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N74" s="10"/>
+      <c r="N74" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
       <c r="Q74" s="10"/>
@@ -4980,13 +5128,13 @@
         <v>22809</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>15</v>
@@ -5015,7 +5163,9 @@
       <c r="M75" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N75" s="10"/>
+      <c r="N75" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
       <c r="Q75" s="10"/>
@@ -5031,13 +5181,13 @@
         <v>22809</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>15</v>
@@ -5066,7 +5216,9 @@
       <c r="M76" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N76" s="10"/>
+      <c r="N76" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
       <c r="Q76" s="10"/>
@@ -5082,13 +5234,13 @@
         <v>22809</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>11</v>
@@ -5117,7 +5269,9 @@
       <c r="M77" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N77" s="10"/>
+      <c r="N77" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
       <c r="Q77" s="10"/>
@@ -5133,13 +5287,13 @@
         <v>22809</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>11</v>
@@ -5168,7 +5322,9 @@
       <c r="M78" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N78" s="10"/>
+      <c r="N78" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
       <c r="Q78" s="10"/>
@@ -5184,13 +5340,13 @@
         <v>22809</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>15</v>
@@ -5219,7 +5375,9 @@
       <c r="M79" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N79" s="10"/>
+      <c r="N79" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
       <c r="Q79" s="10"/>
@@ -5235,13 +5393,13 @@
         <v>22809</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>11</v>
@@ -5270,7 +5428,9 @@
       <c r="M80" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N80" s="10"/>
+      <c r="N80" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
       <c r="Q80" s="10"/>
@@ -5286,13 +5446,13 @@
         <v>22809</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>15</v>
@@ -5321,7 +5481,9 @@
       <c r="M81" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N81" s="10"/>
+      <c r="N81" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
       <c r="Q81" s="10"/>
@@ -5337,13 +5499,13 @@
         <v>22809</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>15</v>
@@ -5372,7 +5534,9 @@
       <c r="M82" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N82" s="10"/>
+      <c r="N82" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
       <c r="Q82" s="10"/>
@@ -5388,13 +5552,13 @@
         <v>22809</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>11</v>
@@ -5423,7 +5587,9 @@
       <c r="M83" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N83" s="10"/>
+      <c r="N83" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
       <c r="Q83" s="10"/>
@@ -5439,13 +5605,13 @@
         <v>22809</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>15</v>
@@ -5474,7 +5640,9 @@
       <c r="M84" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N84" s="10"/>
+      <c r="N84" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
       <c r="Q84" s="10"/>
@@ -5490,13 +5658,13 @@
         <v>22809</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>15</v>
@@ -5525,7 +5693,9 @@
       <c r="M85" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N85" s="10"/>
+      <c r="N85" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
       <c r="Q85" s="10"/>
@@ -5541,13 +5711,13 @@
         <v>22809</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>15</v>
@@ -5576,7 +5746,9 @@
       <c r="M86" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N86" s="10"/>
+      <c r="N86" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
       <c r="Q86" s="10"/>
@@ -28292,10 +28464,10 @@
   </sheetData>
   <autoFilter ref="A1:W994">
     <sortState ref="A2:Z994">
-      <sortCondition ref="M1:M994"/>
+      <sortCondition ref="N1:N994"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/22809.xlsx
+++ b/22809.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="277">
   <si>
     <t>Nro de comisión</t>
   </si>
@@ -73,15 +73,6 @@
   </si>
   <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>cesaremorel@gmail.com</t>
-  </si>
-  <si>
-    <t>César Eduardo</t>
-  </si>
-  <si>
-    <t>Morel</t>
   </si>
   <si>
     <t>mariaeugenial@gmail.com</t>
@@ -154,15 +145,6 @@
   </si>
   <si>
     <t>Caldiroli</t>
-  </si>
-  <si>
-    <t>nv.alcaraz2@gmail.com</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Alcaraz</t>
   </si>
   <si>
     <t>anapoolalvarez@hotmail.com</t>
@@ -244,15 +226,6 @@
   </si>
   <si>
     <t>Furio</t>
-  </si>
-  <si>
-    <t>leandro.javier.p@gmail.com</t>
-  </si>
-  <si>
-    <t>Leandro</t>
-  </si>
-  <si>
-    <t>Pastori</t>
   </si>
   <si>
     <t>jicorbillon@live.com.ar</t>
@@ -456,24 +429,6 @@
     <t>Gonzalez</t>
   </si>
   <si>
-    <t>aperez2055@gmail.com</t>
-  </si>
-  <si>
-    <t>Andrés</t>
-  </si>
-  <si>
-    <t>Pérez</t>
-  </si>
-  <si>
-    <t>leanmedina93@gmail.com</t>
-  </si>
-  <si>
-    <t>Mauro Leandro</t>
-  </si>
-  <si>
-    <t>Medina Jacobo</t>
-  </si>
-  <si>
     <t>tsutomusanagi@gmail.com</t>
   </si>
   <si>
@@ -495,33 +450,6 @@
     <t>Lambruschini</t>
   </si>
   <si>
-    <t>ritar333@gmail.com</t>
-  </si>
-  <si>
-    <t>Rita</t>
-  </si>
-  <si>
-    <t>Rentani</t>
-  </si>
-  <si>
-    <t>mau.florio@gmail.com</t>
-  </si>
-  <si>
-    <t>Mauro</t>
-  </si>
-  <si>
-    <t>Florio Aguilar</t>
-  </si>
-  <si>
-    <t>gabriel.correale@gmail.com</t>
-  </si>
-  <si>
-    <t>Agustin Ivan Gabriel</t>
-  </si>
-  <si>
-    <t>Correale</t>
-  </si>
-  <si>
     <t>kevinalejandro738@gmail.com</t>
   </si>
   <si>
@@ -529,15 +457,6 @@
   </si>
   <si>
     <t>Mediña</t>
-  </si>
-  <si>
-    <t>rebecabeatriz.reboo@gmail.com</t>
-  </si>
-  <si>
-    <t>Rebeca Beatriz</t>
-  </si>
-  <si>
-    <t>Cruz</t>
   </si>
   <si>
     <t>diegotola1999@gmail.com</t>
@@ -564,15 +483,6 @@
     <t>García Giachino</t>
   </si>
   <si>
-    <t>federico.dinucci14@gmail.com</t>
-  </si>
-  <si>
-    <t>Federico</t>
-  </si>
-  <si>
-    <t>Dinucci</t>
-  </si>
-  <si>
     <t>braian.arguello@hotmail.com</t>
   </si>
   <si>
@@ -580,15 +490,6 @@
   </si>
   <si>
     <t>Arguello</t>
-  </si>
-  <si>
-    <t>antodc96@gmail.com</t>
-  </si>
-  <si>
-    <t>Antonella</t>
-  </si>
-  <si>
-    <t>cavallo</t>
   </si>
   <si>
     <t>santoseric@hotmail.es</t>
@@ -636,12 +537,6 @@
     <t>Aoad</t>
   </si>
   <si>
-    <t>lucia.lbg93@gmail.com</t>
-  </si>
-  <si>
-    <t>Lucia Belen</t>
-  </si>
-  <si>
     <t>matiasdiaz0209@gmail.com</t>
   </si>
   <si>
@@ -658,6 +553,120 @@
   </si>
   <si>
     <t>Salas</t>
+  </si>
+  <si>
+    <t>sebas.avola@gmail.com</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Avola</t>
+  </si>
+  <si>
+    <t>cesaremorel@gmail.com</t>
+  </si>
+  <si>
+    <t>César Eduardo</t>
+  </si>
+  <si>
+    <t>Morel</t>
+  </si>
+  <si>
+    <t>nv.alcaraz2@gmail.com</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Alcaraz</t>
+  </si>
+  <si>
+    <t>leandro.javier.p@gmail.com</t>
+  </si>
+  <si>
+    <t>Leandro</t>
+  </si>
+  <si>
+    <t>Pastori</t>
+  </si>
+  <si>
+    <t>aperez2055@gmail.com</t>
+  </si>
+  <si>
+    <t>Andrés</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>leanmedina93@gmail.com</t>
+  </si>
+  <si>
+    <t>Mauro Leandro</t>
+  </si>
+  <si>
+    <t>Medina Jacobo</t>
+  </si>
+  <si>
+    <t>ritar333@gmail.com</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Rentani</t>
+  </si>
+  <si>
+    <t>mau.florio@gmail.com</t>
+  </si>
+  <si>
+    <t>Mauro</t>
+  </si>
+  <si>
+    <t>Florio Aguilar</t>
+  </si>
+  <si>
+    <t>gabriel.correale@gmail.com</t>
+  </si>
+  <si>
+    <t>Agustin Ivan Gabriel</t>
+  </si>
+  <si>
+    <t>Correale</t>
+  </si>
+  <si>
+    <t>rebecabeatriz.reboo@gmail.com</t>
+  </si>
+  <si>
+    <t>Rebeca Beatriz</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>federico.dinucci14@gmail.com</t>
+  </si>
+  <si>
+    <t>Federico</t>
+  </si>
+  <si>
+    <t>Dinucci</t>
+  </si>
+  <si>
+    <t>antodc96@gmail.com</t>
+  </si>
+  <si>
+    <t>Antonella</t>
+  </si>
+  <si>
+    <t>cavallo</t>
+  </si>
+  <si>
+    <t>lucia.lbg93@gmail.com</t>
+  </si>
+  <si>
+    <t>Lucia Belen</t>
   </si>
   <si>
     <t>gonzalo.sanchez.s@gmail.com</t>
@@ -685,15 +694,6 @@
   </si>
   <si>
     <t>maiden</t>
-  </si>
-  <si>
-    <t>sebas.avola@gmail.com</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Avola</t>
   </si>
   <si>
     <t>pau.florio@gmail.com</t>
@@ -827,12 +827,39 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -854,6 +881,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -952,7 +985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -990,6 +1023,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1210,7 +1246,7 @@
   <dimension ref="A1:W994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1277,8 +1313,12 @@
       <c r="R1" s="3">
         <v>44839</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="S1" s="3">
+        <v>44844</v>
+      </c>
+      <c r="T1" s="3">
+        <v>44846</v>
+      </c>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
       <c r="W1" s="6"/>
@@ -1338,8 +1378,12 @@
       <c r="R2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
+      <c r="S2" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
       <c r="W2" s="6"/>
@@ -1349,13 +1393,13 @@
         <v>22809</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>16</v>
@@ -1399,8 +1443,12 @@
       <c r="R3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
+      <c r="S3" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
       <c r="W3" s="6"/>
@@ -1410,13 +1458,13 @@
         <v>22809</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>15</v>
@@ -1460,8 +1508,12 @@
       <c r="R4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
+      <c r="S4" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
       <c r="W4" s="6"/>
@@ -1471,13 +1523,13 @@
         <v>22809</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>16</v>
@@ -1521,8 +1573,12 @@
       <c r="R5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
+      <c r="S5" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
       <c r="W5" s="6"/>
@@ -1532,13 +1588,13 @@
         <v>22809</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>16</v>
@@ -1582,8 +1638,12 @@
       <c r="R6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
+      <c r="S6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
       <c r="W6" s="6"/>
@@ -1593,13 +1653,13 @@
         <v>22809</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>16</v>
@@ -1643,8 +1703,12 @@
       <c r="R7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
+      <c r="S7" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
       <c r="W7" s="6"/>
@@ -1654,13 +1718,13 @@
         <v>22809</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>16</v>
@@ -1704,8 +1768,12 @@
       <c r="R8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
+      <c r="S8" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
       <c r="W8" s="6"/>
@@ -1715,13 +1783,13 @@
         <v>22809</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>16</v>
@@ -1765,8 +1833,10 @@
       <c r="R9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
       <c r="W9" s="6"/>
@@ -1776,13 +1846,13 @@
         <v>22809</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>16</v>
@@ -1826,8 +1896,12 @@
       <c r="R10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
+      <c r="S10" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="W10" s="6"/>
@@ -1837,13 +1911,13 @@
         <v>22809</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>16</v>
@@ -1887,8 +1961,12 @@
       <c r="R11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
+      <c r="S11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="6"/>
@@ -1898,13 +1976,13 @@
         <v>22809</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>16</v>
@@ -1948,8 +2026,12 @@
       <c r="R12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
+      <c r="S12" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
       <c r="W12" s="6"/>
@@ -1959,13 +2041,13 @@
         <v>22809</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>16</v>
@@ -2009,8 +2091,12 @@
       <c r="R13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
+      <c r="S13" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
       <c r="W13" s="6"/>
@@ -2020,13 +2106,13 @@
         <v>22809</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>16</v>
@@ -2070,8 +2156,12 @@
       <c r="R14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
+      <c r="S14" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="6"/>
@@ -2081,13 +2171,13 @@
         <v>22809</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>15</v>
@@ -2131,8 +2221,12 @@
       <c r="R15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
+      <c r="S15" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
       <c r="W15" s="6"/>
@@ -2142,13 +2236,13 @@
         <v>22809</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>16</v>
@@ -2192,8 +2286,12 @@
       <c r="R16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
+      <c r="S16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="6"/>
@@ -2203,13 +2301,13 @@
         <v>22809</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>16</v>
@@ -2253,8 +2351,12 @@
       <c r="R17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
+      <c r="S17" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="6"/>
@@ -2264,13 +2366,13 @@
         <v>22809</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>16</v>
@@ -2314,8 +2416,10 @@
       <c r="R18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="6"/>
@@ -2325,13 +2429,13 @@
         <v>22809</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>15</v>
@@ -2375,8 +2479,10 @@
       <c r="R19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
       <c r="W19" s="6"/>
@@ -2386,13 +2492,13 @@
         <v>22809</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>16</v>
@@ -2436,8 +2542,10 @@
       <c r="R20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="6"/>
@@ -2447,13 +2555,13 @@
         <v>22809</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>16</v>
@@ -2497,8 +2605,10 @@
       <c r="R21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="W21" s="6"/>
@@ -2508,16 +2618,16 @@
         <v>22809</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>16</v>
+        <v>79</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>16</v>
@@ -2558,8 +2668,10 @@
       <c r="R22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
       <c r="W22" s="6"/>
@@ -2569,16 +2681,16 @@
         <v>22809</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>15</v>
+        <v>82</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>16</v>
@@ -2619,8 +2731,10 @@
       <c r="R23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="6"/>
@@ -2630,13 +2744,13 @@
         <v>22809</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>16</v>
@@ -2680,8 +2794,10 @@
       <c r="R24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="6"/>
@@ -2691,13 +2807,13 @@
         <v>22809</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>16</v>
@@ -2741,8 +2857,10 @@
       <c r="R25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
       <c r="W25" s="6"/>
@@ -2752,13 +2870,13 @@
         <v>22809</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>16</v>
@@ -2802,8 +2920,10 @@
       <c r="R26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
       <c r="W26" s="6"/>
@@ -2813,14 +2933,14 @@
         <v>22809</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>100</v>
-      </c>
       <c r="E27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2863,8 +2983,10 @@
       <c r="R27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
       <c r="W27" s="6"/>
@@ -2874,14 +2996,14 @@
         <v>22809</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="E28" s="10" t="s">
         <v>16</v>
       </c>
@@ -2924,8 +3046,10 @@
       <c r="R28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="6"/>
@@ -2935,19 +3059,19 @@
         <v>22809</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="E29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>16</v>
+      <c r="F29" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>16</v>
@@ -2985,8 +3109,10 @@
       <c r="R29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
       <c r="W29" s="6"/>
@@ -2996,10 +3122,10 @@
         <v>22809</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>107</v>
@@ -3046,8 +3172,10 @@
       <c r="R30" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
       <c r="W30" s="6"/>
@@ -3068,8 +3196,8 @@
       <c r="E31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>16</v>
+      <c r="F31" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>16</v>
@@ -3077,8 +3205,8 @@
       <c r="H31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="10" t="s">
-        <v>16</v>
+      <c r="I31" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="J31" s="10" t="s">
         <v>16</v>
@@ -3107,8 +3235,10 @@
       <c r="R31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
       <c r="W31" s="6"/>
@@ -3129,8 +3259,8 @@
       <c r="E32" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>15</v>
+      <c r="F32" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>16</v>
@@ -3168,8 +3298,10 @@
       <c r="R32" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
       <c r="W32" s="6"/>
@@ -3199,8 +3331,8 @@
       <c r="H33" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="10" t="s">
-        <v>16</v>
+      <c r="I33" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>16</v>
@@ -3229,8 +3361,10 @@
       <c r="R33" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
       <c r="W33" s="6"/>
@@ -3240,19 +3374,19 @@
         <v>22809</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>15</v>
+      <c r="F34" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>16</v>
@@ -3260,8 +3394,8 @@
       <c r="H34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>15</v>
+      <c r="I34" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>16</v>
@@ -3290,8 +3424,10 @@
       <c r="R34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
       <c r="W34" s="6"/>
@@ -3301,13 +3437,13 @@
         <v>22809</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>16</v>
@@ -3351,8 +3487,10 @@
       <c r="R35" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
       <c r="W35" s="6"/>
@@ -3362,16 +3500,16 @@
         <v>22809</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>16</v>
+        <v>131</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>16</v>
@@ -3382,11 +3520,11 @@
       <c r="H36" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I36" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>16</v>
+      <c r="I36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>16</v>
@@ -3412,8 +3550,10 @@
       <c r="R36" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
       <c r="W36" s="6"/>
@@ -3423,31 +3563,31 @@
         <v>22809</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>15</v>
+        <v>134</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>16</v>
+      <c r="H37" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>16</v>
@@ -3473,8 +3613,10 @@
       <c r="R37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
       <c r="W37" s="6"/>
@@ -3484,19 +3626,19 @@
         <v>22809</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>16</v>
+        <v>137</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>16</v>
@@ -3510,8 +3652,8 @@
       <c r="J38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="10" t="s">
-        <v>16</v>
+      <c r="K38" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>16</v>
@@ -3534,8 +3676,10 @@
       <c r="R38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
       <c r="W38" s="6"/>
@@ -3545,13 +3689,13 @@
         <v>22809</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>16</v>
@@ -3577,8 +3721,8 @@
       <c r="L39" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M39" s="10" t="s">
-        <v>16</v>
+      <c r="M39" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="N39" s="10" t="s">
         <v>16</v>
@@ -3595,8 +3739,10 @@
       <c r="R39" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U39" s="11"/>
       <c r="V39" s="11"/>
       <c r="W39" s="6"/>
@@ -3606,31 +3752,31 @@
         <v>22809</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>16</v>
+      <c r="F40" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>16</v>
+      <c r="H40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>16</v>
@@ -3638,8 +3784,8 @@
       <c r="L40" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M40" s="10" t="s">
-        <v>16</v>
+      <c r="M40" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>16</v>
@@ -3656,8 +3802,10 @@
       <c r="R40" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U40" s="11"/>
       <c r="V40" s="11"/>
       <c r="W40" s="6"/>
@@ -3667,13 +3815,13 @@
         <v>22809</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>15</v>
@@ -3690,17 +3838,17 @@
       <c r="I41" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J41" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>16</v>
+      <c r="J41" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M41" s="10" t="s">
-        <v>16</v>
+      <c r="M41" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="N41" s="10" t="s">
         <v>16</v>
@@ -3717,8 +3865,10 @@
       <c r="R41" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U41" s="11"/>
       <c r="V41" s="11"/>
       <c r="W41" s="6"/>
@@ -3728,13 +3878,13 @@
         <v>22809</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>16</v>
@@ -3751,26 +3901,26 @@
       <c r="I42" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M42" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N42" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O42" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P42" s="10" t="s">
-        <v>16</v>
+      <c r="J42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="Q42" s="10" t="s">
         <v>16</v>
@@ -3778,8 +3928,10 @@
       <c r="R42" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
       <c r="W42" s="6"/>
@@ -3789,19 +3941,19 @@
         <v>22809</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>153</v>
+        <v>164</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>16</v>
@@ -3815,8 +3967,8 @@
       <c r="J43" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="9" t="s">
-        <v>15</v>
+      <c r="K43" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>16</v>
@@ -3833,14 +3985,16 @@
       <c r="P43" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q43" s="10" t="s">
-        <v>16</v>
+      <c r="Q43" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="R43" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U43" s="11"/>
       <c r="V43" s="11"/>
       <c r="W43" s="6"/>
@@ -3850,19 +4004,19 @@
         <v>22809</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="9" t="s">
-        <v>15</v>
+      <c r="F44" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>16</v>
@@ -3873,11 +4027,11 @@
       <c r="I44" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>15</v>
+      <c r="J44" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="L44" s="10" t="s">
         <v>16</v>
@@ -3894,14 +4048,16 @@
       <c r="P44" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q44" s="10" t="s">
-        <v>16</v>
+      <c r="Q44" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="R44" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U44" s="11"/>
       <c r="V44" s="11"/>
       <c r="W44" s="6"/>
@@ -3911,13 +4067,13 @@
         <v>22809</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>16</v>
@@ -3943,8 +4099,8 @@
       <c r="L45" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M45" s="9" t="s">
-        <v>15</v>
+      <c r="M45" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="N45" s="10" t="s">
         <v>16</v>
@@ -3955,14 +4111,16 @@
       <c r="P45" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q45" s="10" t="s">
-        <v>16</v>
+      <c r="Q45" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="R45" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U45" s="11"/>
       <c r="V45" s="11"/>
       <c r="W45" s="6"/>
@@ -3972,40 +4130,40 @@
         <v>22809</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>15</v>
+        <v>179</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L46" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>15</v>
+      <c r="L46" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>16</v>
@@ -4016,14 +4174,16 @@
       <c r="P46" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q46" s="10" t="s">
-        <v>16</v>
+      <c r="Q46" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="R46" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U46" s="11"/>
       <c r="V46" s="11"/>
       <c r="W46" s="6"/>
@@ -4033,16 +4193,16 @@
         <v>22809</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>15</v>
+        <v>182</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>16</v>
@@ -4059,14 +4219,14 @@
       <c r="J47" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K47" s="9" t="s">
-        <v>15</v>
+      <c r="K47" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M47" s="9" t="s">
-        <v>15</v>
+      <c r="M47" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="N47" s="10" t="s">
         <v>16</v>
@@ -4080,11 +4240,13 @@
       <c r="Q47" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R47" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
+      <c r="R47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S47" s="9"/>
+      <c r="T47" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U47" s="11"/>
       <c r="V47" s="11"/>
       <c r="W47" s="6"/>
@@ -4094,28 +4256,28 @@
         <v>22809</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>16</v>
+        <v>185</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>15</v>
+      <c r="G48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="J48" s="10" t="s">
         <v>16</v>
@@ -4123,29 +4285,31 @@
       <c r="K48" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L48" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N48" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O48" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P48" s="9" t="s">
-        <v>15</v>
+      <c r="L48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P48" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="Q48" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R48" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
+      <c r="R48" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S48" s="9"/>
+      <c r="T48" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U48" s="11"/>
       <c r="V48" s="11"/>
       <c r="W48" s="6"/>
@@ -4155,13 +4319,13 @@
         <v>22809</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>16</v>
@@ -4181,32 +4345,34 @@
       <c r="J49" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K49" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L49" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N49" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O49" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P49" s="9" t="s">
-        <v>15</v>
+      <c r="K49" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N49" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O49" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P49" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="Q49" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R49" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
+      <c r="R49" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S49" s="9"/>
+      <c r="T49" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U49" s="11"/>
       <c r="V49" s="11"/>
       <c r="W49" s="6"/>
@@ -4216,22 +4382,22 @@
         <v>22809</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>16</v>
+      <c r="F50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>15</v>
@@ -4239,54 +4405,56 @@
       <c r="I50" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J50" s="10" t="s">
-        <v>16</v>
+      <c r="J50" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="K50" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L50" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N50" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O50" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P50" s="9" t="s">
-        <v>15</v>
+      <c r="L50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P50" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="Q50" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R50" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="6"/>
+      <c r="R50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S50" s="9"/>
+      <c r="T50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="13"/>
     </row>
     <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>22809</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>16</v>
+        <v>200</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>16</v>
@@ -4306,8 +4474,8 @@
       <c r="K51" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L51" s="10" t="s">
-        <v>16</v>
+      <c r="L51" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="M51" s="10" t="s">
         <v>16</v>
@@ -4324,27 +4492,29 @@
       <c r="Q51" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R51" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="12"/>
-      <c r="W51" s="13"/>
+      <c r="R51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S51" s="9"/>
+      <c r="T51" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="6"/>
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>22809</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>16</v>
@@ -4352,8 +4522,8 @@
       <c r="F52" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G52" s="10" t="s">
-        <v>16</v>
+      <c r="G52" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="H52" s="10" t="s">
         <v>16</v>
@@ -4367,8 +4537,8 @@
       <c r="K52" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L52" s="10" t="s">
-        <v>16</v>
+      <c r="L52" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="M52" s="10" t="s">
         <v>16</v>
@@ -4382,14 +4552,16 @@
       <c r="P52" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q52" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R52" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
+      <c r="Q52" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R52" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S52" s="9"/>
+      <c r="T52" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U52" s="11"/>
       <c r="V52" s="11"/>
       <c r="W52" s="6"/>
@@ -4399,19 +4571,19 @@
         <v>22809</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="10" t="s">
-        <v>16</v>
+      <c r="F53" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>16</v>
@@ -4425,32 +4597,34 @@
       <c r="J53" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K53" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L53" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M53" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N53" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O53" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P53" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q53" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R53" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
+      <c r="K53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q53" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S53" s="9"/>
+      <c r="T53" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U53" s="11"/>
       <c r="V53" s="11"/>
       <c r="W53" s="6"/>
@@ -4460,13 +4634,13 @@
         <v>22809</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>16</v>
@@ -4507,11 +4681,13 @@
       <c r="Q54" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R54" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
+      <c r="R54" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S54" s="9"/>
+      <c r="T54" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U54" s="11"/>
       <c r="V54" s="11"/>
       <c r="W54" s="6"/>
@@ -4521,13 +4697,13 @@
         <v>22809</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>16</v>
@@ -4538,8 +4714,8 @@
       <c r="G55" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H55" s="10" t="s">
-        <v>16</v>
+      <c r="H55" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>16</v>
@@ -4568,11 +4744,13 @@
       <c r="Q55" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R55" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
+      <c r="R55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S55" s="9"/>
+      <c r="T55" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="U55" s="11"/>
       <c r="V55" s="11"/>
       <c r="W55" s="6"/>
@@ -4582,13 +4760,13 @@
         <v>22809</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>209</v>
+        <v>74</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>16</v>
@@ -4626,14 +4804,16 @@
       <c r="P56" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q56" s="9" t="s">
-        <v>15</v>
+      <c r="Q56" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="R56" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U56" s="11"/>
       <c r="V56" s="11"/>
       <c r="W56" s="6"/>
@@ -4643,22 +4823,22 @@
         <v>22809</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>221</v>
+        <v>86</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>222</v>
+        <v>87</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>15</v>
+        <v>88</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="9" t="s">
-        <v>15</v>
+      <c r="G57" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="H57" s="10" t="s">
         <v>16</v>
@@ -4672,8 +4852,8 @@
       <c r="K57" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L57" s="9" t="s">
-        <v>15</v>
+      <c r="L57" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="M57" s="10" t="s">
         <v>16</v>
@@ -4687,14 +4867,16 @@
       <c r="P57" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q57" s="9" t="s">
-        <v>15</v>
+      <c r="Q57" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="R57" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U57" s="11"/>
       <c r="V57" s="11"/>
       <c r="W57" s="6"/>
@@ -4704,13 +4886,13 @@
         <v>22809</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>16</v>
@@ -4751,11 +4933,13 @@
       <c r="Q58" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R58" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
+      <c r="R58" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U58" s="11"/>
       <c r="V58" s="11"/>
       <c r="W58" s="6"/>
@@ -4765,28 +4949,28 @@
         <v>22809</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F59" s="10" t="s">
-        <v>16</v>
+      <c r="F59" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H59" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>16</v>
+      <c r="H59" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="J59" s="10" t="s">
         <v>16</v>
@@ -4812,11 +4996,13 @@
       <c r="Q59" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R59" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
+      <c r="R59" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U59" s="11"/>
       <c r="V59" s="11"/>
       <c r="W59" s="6"/>
@@ -4826,19 +5012,19 @@
         <v>22809</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>15</v>
+        <v>128</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>16</v>
@@ -4873,11 +5059,13 @@
       <c r="Q60" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R60" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
+      <c r="R60" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U60" s="11"/>
       <c r="V60" s="11"/>
       <c r="W60" s="6"/>
@@ -4887,22 +5075,22 @@
         <v>22809</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>15</v>
+      <c r="F61" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="H61" s="10" t="s">
         <v>16</v>
@@ -4913,8 +5101,8 @@
       <c r="J61" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K61" s="10" t="s">
-        <v>16</v>
+      <c r="K61" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="L61" s="10" t="s">
         <v>16</v>
@@ -4934,11 +5122,13 @@
       <c r="Q61" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R61" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
+      <c r="R61" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U61" s="11"/>
       <c r="V61" s="11"/>
       <c r="W61" s="6"/>
@@ -4948,13 +5138,13 @@
         <v>22809</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>16</v>
@@ -4962,14 +5152,14 @@
       <c r="F62" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G62" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>16</v>
+      <c r="G62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="J62" s="10" t="s">
         <v>16</v>
@@ -4977,29 +5167,31 @@
       <c r="K62" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L62" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M62" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N62" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O62" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P62" s="10" t="s">
-        <v>16</v>
+      <c r="L62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P62" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="Q62" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R62" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
+      <c r="R62" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U62" s="11"/>
       <c r="V62" s="11"/>
       <c r="W62" s="6"/>
@@ -5009,22 +5201,22 @@
         <v>22809</v>
       </c>
       <c r="B63" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="D63" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>159</v>
-      </c>
       <c r="E63" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>15</v>
+      <c r="F63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>15</v>
@@ -5032,54 +5224,56 @@
       <c r="I63" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J63" s="9" t="s">
-        <v>15</v>
+      <c r="J63" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="K63" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L63" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M63" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N63" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O63" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P63" s="10" t="s">
-        <v>16</v>
+      <c r="L63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P63" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="Q63" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R63" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="12"/>
-      <c r="V63" s="12"/>
-      <c r="W63" s="13"/>
+      <c r="R63" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
+      <c r="W63" s="6"/>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>22809</v>
       </c>
       <c r="B64" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="D64" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>15</v>
+      <c r="E64" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>16</v>
@@ -5099,8 +5293,8 @@
       <c r="K64" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L64" s="9" t="s">
-        <v>15</v>
+      <c r="L64" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="M64" s="10" t="s">
         <v>16</v>
@@ -5117,27 +5311,29 @@
       <c r="Q64" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R64" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="6"/>
+      <c r="R64" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="13"/>
     </row>
     <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>22809</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>16</v>
@@ -5145,8 +5341,8 @@
       <c r="F65" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G65" s="9" t="s">
-        <v>15</v>
+      <c r="G65" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="H65" s="10" t="s">
         <v>16</v>
@@ -5160,8 +5356,8 @@
       <c r="K65" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L65" s="9" t="s">
-        <v>15</v>
+      <c r="L65" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="M65" s="10" t="s">
         <v>16</v>
@@ -5175,14 +5371,16 @@
       <c r="P65" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q65" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="R65" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
+      <c r="Q65" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R65" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U65" s="11"/>
       <c r="V65" s="11"/>
       <c r="W65" s="6"/>
@@ -5192,13 +5390,13 @@
         <v>22809</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>16</v>
@@ -5209,14 +5407,14 @@
       <c r="G66" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H66" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J66" s="9" t="s">
-        <v>15</v>
+      <c r="H66" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="K66" s="10" t="s">
         <v>16</v>
@@ -5224,8 +5422,8 @@
       <c r="L66" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M66" s="9" t="s">
-        <v>15</v>
+      <c r="M66" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="N66" s="10" t="s">
         <v>16</v>
@@ -5236,14 +5434,16 @@
       <c r="P66" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q66" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="R66" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
+      <c r="Q66" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R66" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U66" s="11"/>
       <c r="V66" s="11"/>
       <c r="W66" s="6"/>
@@ -5253,19 +5453,19 @@
         <v>22809</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="10" t="s">
-        <v>16</v>
+      <c r="F67" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>16</v>
@@ -5276,26 +5476,26 @@
       <c r="I67" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J67" s="9" t="s">
-        <v>15</v>
+      <c r="J67" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="K67" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L67" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N67" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O67" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P67" s="9" t="s">
-        <v>15</v>
+      <c r="L67" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M67" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N67" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O67" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P67" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="Q67" s="10" t="s">
         <v>16</v>
@@ -5303,8 +5503,10 @@
       <c r="R67" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U67" s="11"/>
       <c r="V67" s="11"/>
       <c r="W67" s="6"/>
@@ -5314,22 +5516,22 @@
         <v>22809</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>16</v>
+      <c r="F68" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="H68" s="10" t="s">
         <v>16</v>
@@ -5337,26 +5539,26 @@
       <c r="I68" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J68" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K68" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L68" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M68" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N68" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O68" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P68" s="9" t="s">
-        <v>15</v>
+      <c r="J68" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L68" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M68" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N68" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O68" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P68" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="Q68" s="10" t="s">
         <v>16</v>
@@ -5364,8 +5566,10 @@
       <c r="R68" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U68" s="11"/>
       <c r="V68" s="11"/>
       <c r="W68" s="6"/>
@@ -5381,7 +5585,7 @@
         <v>205</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>16</v>
@@ -5392,14 +5596,14 @@
       <c r="G69" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H69" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>16</v>
+      <c r="H69" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="K69" s="10" t="s">
         <v>16</v>
@@ -5407,8 +5611,8 @@
       <c r="L69" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M69" s="10" t="s">
-        <v>16</v>
+      <c r="M69" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="N69" s="10" t="s">
         <v>16</v>
@@ -5419,14 +5623,16 @@
       <c r="P69" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q69" s="9" t="s">
-        <v>15</v>
+      <c r="Q69" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="R69" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U69" s="11"/>
       <c r="V69" s="11"/>
       <c r="W69" s="6"/>
@@ -5436,16 +5642,16 @@
         <v>22809</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>16</v>
+        <v>209</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>16</v>
@@ -5459,35 +5665,37 @@
       <c r="I70" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J70" s="10" t="s">
-        <v>16</v>
+      <c r="J70" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="K70" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L70" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M70" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N70" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O70" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P70" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q70" s="9" t="s">
-        <v>15</v>
+      <c r="L70" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O70" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P70" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q70" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="R70" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U70" s="11"/>
       <c r="V70" s="11"/>
       <c r="W70" s="6"/>
@@ -5514,8 +5722,8 @@
       <c r="G71" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H71" s="9" t="s">
-        <v>15</v>
+      <c r="H71" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>16</v>
@@ -5547,8 +5755,10 @@
       <c r="R71" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U71" s="11"/>
       <c r="V71" s="11"/>
       <c r="W71" s="6"/>
@@ -5558,13 +5768,13 @@
         <v>22809</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>15</v>
@@ -5608,8 +5818,10 @@
       <c r="R72" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U72" s="11"/>
       <c r="V72" s="11"/>
       <c r="W72" s="6"/>
@@ -5669,8 +5881,10 @@
       <c r="R73" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U73" s="11"/>
       <c r="V73" s="11"/>
       <c r="W73" s="6"/>
@@ -5730,8 +5944,10 @@
       <c r="R74" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U74" s="11"/>
       <c r="V74" s="11"/>
       <c r="W74" s="6"/>
@@ -5791,8 +6007,10 @@
       <c r="R75" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U75" s="11"/>
       <c r="V75" s="11"/>
       <c r="W75" s="6"/>
@@ -5852,8 +6070,10 @@
       <c r="R76" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U76" s="11"/>
       <c r="V76" s="11"/>
       <c r="W76" s="6"/>
@@ -5913,8 +6133,10 @@
       <c r="R77" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U77" s="11"/>
       <c r="V77" s="11"/>
       <c r="W77" s="6"/>
@@ -5974,8 +6196,10 @@
       <c r="R78" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S78" s="11"/>
-      <c r="T78" s="11"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U78" s="11"/>
       <c r="V78" s="11"/>
       <c r="W78" s="6"/>
@@ -6035,8 +6259,10 @@
       <c r="R79" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S79" s="11"/>
-      <c r="T79" s="11"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U79" s="11"/>
       <c r="V79" s="11"/>
       <c r="W79" s="6"/>
@@ -6049,7 +6275,7 @@
         <v>245</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>246</v>
@@ -6096,8 +6322,10 @@
       <c r="R80" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S80" s="11"/>
-      <c r="T80" s="11"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U80" s="11"/>
       <c r="V80" s="11"/>
       <c r="W80" s="6"/>
@@ -6157,8 +6385,10 @@
       <c r="R81" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S81" s="11"/>
-      <c r="T81" s="11"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U81" s="11"/>
       <c r="V81" s="11"/>
       <c r="W81" s="6"/>
@@ -6171,7 +6401,7 @@
         <v>250</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>251</v>
@@ -6218,8 +6448,10 @@
       <c r="R82" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S82" s="11"/>
-      <c r="T82" s="11"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U82" s="11"/>
       <c r="V82" s="11"/>
       <c r="W82" s="6"/>
@@ -6279,8 +6511,10 @@
       <c r="R83" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U83" s="11"/>
       <c r="V83" s="11"/>
       <c r="W83" s="6"/>
@@ -6340,8 +6574,10 @@
       <c r="R84" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S84" s="11"/>
-      <c r="T84" s="11"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U84" s="11"/>
       <c r="V84" s="11"/>
       <c r="W84" s="6"/>
@@ -6401,8 +6637,10 @@
       <c r="R85" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S85" s="11"/>
-      <c r="T85" s="11"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U85" s="11"/>
       <c r="V85" s="11"/>
       <c r="W85" s="6"/>
@@ -6462,8 +6700,10 @@
       <c r="R86" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S86" s="11"/>
-      <c r="T86" s="11"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U86" s="11"/>
       <c r="V86" s="11"/>
       <c r="W86" s="6"/>
@@ -6523,8 +6763,10 @@
       <c r="R87" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
       <c r="W87" s="6"/>
@@ -29209,10 +29451,10 @@
   </sheetData>
   <autoFilter ref="A1:W994">
     <sortState ref="A2:Z994">
-      <sortCondition ref="R1:R994"/>
+      <sortCondition ref="T1:T994"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/22809.xlsx
+++ b/22809.xlsx
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="C38" workbookViewId="0">
+      <selection activeCell="U50" sqref="U50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4811,8 +4811,8 @@
         <v>16</v>
       </c>
       <c r="S56" s="9"/>
-      <c r="T56" s="9" t="s">
-        <v>15</v>
+      <c r="T56" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="U56" s="11"/>
       <c r="V56" s="11"/>

--- a/22809.xlsx
+++ b/22809.xlsx
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C38" workbookViewId="0">
-      <selection activeCell="U50" sqref="U50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q55" sqref="B55:Q55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4741,11 +4741,11 @@
       <c r="P55" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q55" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R55" s="9" t="s">
-        <v>15</v>
+      <c r="Q55" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R55" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="S55" s="9"/>
       <c r="T55" s="10" t="s">

--- a/22809.xlsx
+++ b/22809.xlsx
@@ -9,20 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#22809" sheetId="1" r:id="rId1"/>
+    <sheet name="GRUPO" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#22809'!$A$1:$W$977</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">GRUPO!$A$1:$F$70</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="223">
   <si>
     <t>Nro de comisión</t>
   </si>
@@ -683,6 +685,15 @@
   <si>
     <t>FERIADO</t>
   </si>
+  <si>
+    <t>GRUPO</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>REPOSITORIO</t>
+  </si>
 </sst>
 </file>
 
@@ -744,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -804,11 +815,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -848,6 +874,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1067,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W977"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D70" sqref="B1:D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28460,4 +28498,1157 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="A1:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.44140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="20" style="17" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="17"/>
+    <col min="5" max="5" width="14.77734375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="18">
+        <v>1</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="18">
+        <v>1</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="18">
+        <v>2</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="18">
+        <v>2</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="18">
+        <v>2</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="18">
+        <v>2</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="18">
+        <v>2</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="18">
+        <v>2</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="18">
+        <v>2</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="18">
+        <v>2</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="18">
+        <v>3</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="18">
+        <v>3</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="18">
+        <v>3</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="18">
+        <v>3</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="18">
+        <v>3</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="18">
+        <v>3</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="18">
+        <v>3</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="18">
+        <v>3</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="18">
+        <v>3</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="18">
+        <v>3</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="18">
+        <v>3</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="18">
+        <v>4</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="18">
+        <v>4</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="18">
+        <v>4</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="18">
+        <v>4</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="18">
+        <v>4</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="18">
+        <v>4</v>
+      </c>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="18">
+        <v>4</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="18">
+        <v>4</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="18">
+        <v>4</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="18">
+        <v>4</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="18">
+        <v>5</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" s="18">
+        <v>5</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="18">
+        <v>5</v>
+      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44" s="18">
+        <v>5</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D45" s="18">
+        <v>5</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="18">
+        <v>5</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="18">
+        <v>5</v>
+      </c>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="18">
+        <v>5</v>
+      </c>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="18">
+        <v>5</v>
+      </c>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="18">
+        <v>5</v>
+      </c>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="18">
+        <v>6</v>
+      </c>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="18">
+        <v>6</v>
+      </c>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="18">
+        <v>6</v>
+      </c>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="18">
+        <v>6</v>
+      </c>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" s="18">
+        <v>6</v>
+      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="18">
+        <v>6</v>
+      </c>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="18">
+        <v>6</v>
+      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="18">
+        <v>6</v>
+      </c>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="18">
+        <v>6</v>
+      </c>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="18">
+        <v>6</v>
+      </c>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="18">
+        <v>7</v>
+      </c>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="18">
+        <v>7</v>
+      </c>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D63" s="18">
+        <v>7</v>
+      </c>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" s="18">
+        <v>7</v>
+      </c>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" s="18">
+        <v>7</v>
+      </c>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D66" s="18">
+        <v>7</v>
+      </c>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67" s="18">
+        <v>7</v>
+      </c>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D68" s="18">
+        <v>7</v>
+      </c>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D69" s="18">
+        <v>7</v>
+      </c>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" s="18">
+        <v>7</v>
+      </c>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F70">
+    <sortState ref="A2:F70">
+      <sortCondition ref="D1:D70"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/22809.xlsx
+++ b/22809.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="#22809" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#22809'!$A$1:$W$977</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">GRUPO!$A$1:$F$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">GRUPO!$A$1:$AD$71</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="223">
   <si>
     <t>Nro de comisión</t>
   </si>
@@ -689,21 +689,28 @@
     <t>GRUPO</t>
   </si>
   <si>
-    <t>OBSERVACIONES</t>
+    <t>leandrodelosantos@hotmail.com</t>
   </si>
   <si>
-    <t>REPOSITORIO</t>
+    <t>De Los Santos Aboy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -723,7 +730,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,8 +761,20 @@
         <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -830,62 +849,155 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1103,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W977"/>
+  <dimension ref="A1:AD977"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D70" sqref="B1:D70"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71:V71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5410,7 +5522,7 @@
       </c>
       <c r="W64" s="5"/>
     </row>
-    <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>22809</v>
       </c>
@@ -5477,7 +5589,7 @@
       </c>
       <c r="W65" s="5"/>
     </row>
-    <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>22809</v>
       </c>
@@ -5544,7 +5656,7 @@
       </c>
       <c r="W66" s="5"/>
     </row>
-    <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>22809</v>
       </c>
@@ -5611,7 +5723,7 @@
       </c>
       <c r="W67" s="13"/>
     </row>
-    <row r="68" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>22809</v>
       </c>
@@ -5678,7 +5790,7 @@
       </c>
       <c r="W68" s="5"/>
     </row>
-    <row r="69" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>22809</v>
       </c>
@@ -5745,7 +5857,7 @@
       </c>
       <c r="W69" s="5"/>
     </row>
-    <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>22809</v>
       </c>
@@ -5812,32 +5924,80 @@
       </c>
       <c r="W70" s="5"/>
     </row>
-    <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="14"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="10"/>
-      <c r="W71" s="5"/>
-    </row>
-    <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="19">
+        <v>22809</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K71" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L71" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="M71" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="N71" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="O71" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="P71" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q71" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="R71" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="S71" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T71" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="U71" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="V71" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z71" s="24"/>
+      <c r="AA71" s="24"/>
+      <c r="AB71" s="24"/>
+      <c r="AC71" s="24"/>
+      <c r="AD71" s="24"/>
+    </row>
+    <row r="72" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -5862,7 +6022,7 @@
       <c r="V72" s="10"/>
       <c r="W72" s="5"/>
     </row>
-    <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -5887,7 +6047,7 @@
       <c r="V73" s="10"/>
       <c r="W73" s="5"/>
     </row>
-    <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -5912,7 +6072,7 @@
       <c r="V74" s="10"/>
       <c r="W74" s="5"/>
     </row>
-    <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -5937,7 +6097,7 @@
       <c r="V75" s="10"/>
       <c r="W75" s="5"/>
     </row>
-    <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -5962,7 +6122,7 @@
       <c r="V76" s="10"/>
       <c r="W76" s="5"/>
     </row>
-    <row r="77" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -5987,7 +6147,7 @@
       <c r="V77" s="10"/>
       <c r="W77" s="5"/>
     </row>
-    <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -6012,7 +6172,7 @@
       <c r="V78" s="10"/>
       <c r="W78" s="5"/>
     </row>
-    <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -6037,7 +6197,7 @@
       <c r="V79" s="10"/>
       <c r="W79" s="5"/>
     </row>
-    <row r="80" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -28502,10 +28662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="A1:D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28513,13 +28673,10 @@
     <col min="1" max="1" width="35.44140625" style="17" customWidth="1"/>
     <col min="2" max="2" width="20" style="17" customWidth="1"/>
     <col min="3" max="3" width="22.5546875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="17"/>
-    <col min="5" max="5" width="14.77734375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="17"/>
+    <col min="4" max="16384" width="11.5546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -28532,14 +28689,8 @@
       <c r="D1" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
@@ -28552,10 +28703,8 @@
       <c r="D2" s="18">
         <v>1</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
@@ -28568,10 +28717,8 @@
       <c r="D3" s="18">
         <v>1</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>20</v>
       </c>
@@ -28584,10 +28731,8 @@
       <c r="D4" s="18">
         <v>1</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>23</v>
       </c>
@@ -28600,10 +28745,8 @@
       <c r="D5" s="18">
         <v>1</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>29</v>
       </c>
@@ -28616,10 +28759,8 @@
       <c r="D6" s="18">
         <v>1</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>32</v>
       </c>
@@ -28632,10 +28773,8 @@
       <c r="D7" s="18">
         <v>1</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>35</v>
       </c>
@@ -28648,10 +28787,8 @@
       <c r="D8" s="18">
         <v>1</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>38</v>
       </c>
@@ -28664,10 +28801,8 @@
       <c r="D9" s="18">
         <v>1</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>41</v>
       </c>
@@ -28680,10 +28815,8 @@
       <c r="D10" s="18">
         <v>2</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>44</v>
       </c>
@@ -28696,10 +28829,8 @@
       <c r="D11" s="18">
         <v>2</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>47</v>
       </c>
@@ -28712,10 +28843,8 @@
       <c r="D12" s="18">
         <v>2</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>53</v>
       </c>
@@ -28728,10 +28857,8 @@
       <c r="D13" s="18">
         <v>2</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>56</v>
       </c>
@@ -28744,10 +28871,8 @@
       <c r="D14" s="18">
         <v>2</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>62</v>
       </c>
@@ -28760,10 +28885,8 @@
       <c r="D15" s="18">
         <v>2</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>68</v>
       </c>
@@ -28776,10 +28899,8 @@
       <c r="D16" s="18">
         <v>2</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>76</v>
       </c>
@@ -28792,10 +28913,8 @@
       <c r="D17" s="18">
         <v>2</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>79</v>
       </c>
@@ -28808,10 +28927,8 @@
       <c r="D18" s="18">
         <v>2</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>82</v>
       </c>
@@ -28824,10 +28941,8 @@
       <c r="D19" s="18">
         <v>2</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>85</v>
       </c>
@@ -28840,10 +28955,8 @@
       <c r="D20" s="18">
         <v>3</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>88</v>
       </c>
@@ -28856,10 +28969,8 @@
       <c r="D21" s="18">
         <v>3</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>91</v>
       </c>
@@ -28872,10 +28983,8 @@
       <c r="D22" s="18">
         <v>3</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>94</v>
       </c>
@@ -28888,10 +28997,8 @@
       <c r="D23" s="18">
         <v>3</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>100</v>
       </c>
@@ -28904,10 +29011,8 @@
       <c r="D24" s="18">
         <v>3</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>104</v>
       </c>
@@ -28920,10 +29025,8 @@
       <c r="D25" s="18">
         <v>3</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>107</v>
       </c>
@@ -28936,10 +29039,8 @@
       <c r="D26" s="18">
         <v>3</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>113</v>
       </c>
@@ -28952,10 +29053,8 @@
       <c r="D27" s="18">
         <v>3</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>116</v>
       </c>
@@ -28968,10 +29067,8 @@
       <c r="D28" s="18">
         <v>3</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>119</v>
       </c>
@@ -28984,10 +29081,8 @@
       <c r="D29" s="18">
         <v>3</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>215</v>
       </c>
@@ -29000,655 +29095,593 @@
       <c r="D30" s="18">
         <v>3</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="D31" s="18">
+        <v>3</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B32" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C32" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="D31" s="18">
-        <v>4</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>99</v>
       </c>
       <c r="D32" s="18">
         <v>4</v>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="D33" s="18">
         <v>4</v>
       </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="D34" s="18">
         <v>4</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="D35" s="18">
         <v>4</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D36" s="18">
         <v>4</v>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D37" s="18">
         <v>4</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D38" s="18">
         <v>4</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D39" s="18">
         <v>4</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D40" s="18">
         <v>4</v>
       </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B42" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C42" s="16" t="s">
         <v>167</v>
-      </c>
-      <c r="D41" s="18">
-        <v>5</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>170</v>
       </c>
       <c r="D42" s="18">
         <v>5</v>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D43" s="18">
         <v>5</v>
       </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="D44" s="18">
         <v>5</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D45" s="18">
         <v>5</v>
       </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="D46" s="18">
         <v>5</v>
       </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D47" s="18">
         <v>5</v>
       </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D48" s="18">
         <v>5</v>
       </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D49" s="18">
         <v>5</v>
       </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D50" s="18">
         <v>5</v>
       </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B52" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C52" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="D51" s="18">
-        <v>6</v>
-      </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>99</v>
       </c>
       <c r="D52" s="18">
         <v>6</v>
       </c>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D53" s="18">
         <v>6</v>
       </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D54" s="18">
         <v>6</v>
       </c>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D55" s="18">
         <v>6</v>
       </c>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D56" s="18">
         <v>6</v>
       </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D57" s="18">
         <v>6</v>
       </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D58" s="18">
         <v>6</v>
       </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D59" s="18">
         <v>6</v>
       </c>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D60" s="18">
         <v>6</v>
       </c>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B62" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C62" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="D61" s="18">
-        <v>7</v>
-      </c>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>185</v>
       </c>
       <c r="D62" s="18">
         <v>7</v>
       </c>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D63" s="18">
         <v>7</v>
       </c>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D64" s="18">
         <v>7</v>
       </c>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D65" s="18">
         <v>7</v>
       </c>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D66" s="18">
         <v>7</v>
       </c>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D67" s="18">
         <v>7</v>
       </c>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D68" s="18">
         <v>7</v>
       </c>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D69" s="18">
         <v>7</v>
       </c>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D70" s="18">
         <v>7</v>
       </c>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
+    </row>
+    <row r="71" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" s="27">
+        <v>7</v>
+      </c>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F70">
-    <sortState ref="A2:F70">
-      <sortCondition ref="D1:D70"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/22809.xlsx
+++ b/22809.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#22809" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#22809'!$A$1:$W$977</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">GRUPO!$A$1:$AD$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">GRUPO!$A$1:$I$71</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1217,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71:V71"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28664,8 +28664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28706,13 +28706,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="18">
         <v>1</v>
@@ -28720,13 +28720,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" s="18">
         <v>1</v>
@@ -28734,13 +28734,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D5" s="18">
         <v>1</v>
@@ -28748,13 +28748,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D6" s="18">
         <v>1</v>
@@ -28762,13 +28762,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D7" s="18">
         <v>1</v>
@@ -28776,13 +28776,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
@@ -28790,13 +28790,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D9" s="18">
         <v>1</v>
@@ -28804,27 +28804,27 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="D10" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
@@ -28832,13 +28832,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
@@ -28846,13 +28846,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D13" s="18">
         <v>2</v>
@@ -28860,13 +28860,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D14" s="18">
         <v>2</v>
@@ -28874,13 +28874,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
@@ -28888,13 +28888,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D16" s="18">
         <v>2</v>
@@ -28902,13 +28902,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D17" s="18">
         <v>2</v>
@@ -28916,13 +28916,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18" s="18">
         <v>2</v>
@@ -28930,13 +28930,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D19" s="18">
         <v>2</v>
@@ -28944,27 +28944,27 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D20" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D21" s="18">
         <v>3</v>
@@ -28972,13 +28972,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D22" s="18">
         <v>3</v>
@@ -28986,13 +28986,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D23" s="18">
         <v>3</v>
@@ -29000,13 +29000,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D24" s="18">
         <v>3</v>
@@ -29014,13 +29014,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D25" s="18">
         <v>3</v>
@@ -29028,13 +29028,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D26" s="18">
         <v>3</v>
@@ -29042,13 +29042,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D27" s="18">
         <v>3</v>
@@ -29056,13 +29056,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D28" s="18">
         <v>3</v>
@@ -29070,13 +29070,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D29" s="18">
         <v>3</v>
@@ -29084,60 +29084,60 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D30" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>222</v>
+      <c r="A31" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="D31" s="18">
         <v>3</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>127</v>
+      <c r="A32" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>222</v>
       </c>
       <c r="D32" s="18">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D33" s="18">
         <v>4</v>
@@ -29145,13 +29145,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="D34" s="18">
         <v>4</v>
@@ -29159,13 +29159,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="D35" s="18">
         <v>4</v>
@@ -29173,13 +29173,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="D36" s="18">
         <v>4</v>
@@ -29187,13 +29187,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D37" s="18">
         <v>4</v>
@@ -29201,13 +29201,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D38" s="18">
         <v>4</v>
@@ -29215,13 +29215,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D39" s="18">
         <v>4</v>
@@ -29229,13 +29229,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D40" s="18">
         <v>4</v>
@@ -29243,13 +29243,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D41" s="18">
         <v>4</v>
@@ -29257,27 +29257,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D42" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D43" s="18">
         <v>5</v>
@@ -29285,13 +29285,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D44" s="18">
         <v>5</v>
@@ -29299,13 +29299,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="D45" s="18">
         <v>5</v>
@@ -29313,13 +29313,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D46" s="18">
         <v>5</v>
@@ -29327,13 +29327,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="D47" s="18">
         <v>5</v>
@@ -29341,13 +29341,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D48" s="18">
         <v>5</v>
@@ -29355,13 +29355,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D49" s="18">
         <v>5</v>
@@ -29369,13 +29369,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D50" s="18">
         <v>5</v>
@@ -29383,13 +29383,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D51" s="18">
         <v>5</v>
@@ -29397,27 +29397,27 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D52" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D53" s="18">
         <v>6</v>
@@ -29425,13 +29425,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D54" s="18">
         <v>6</v>
@@ -29439,13 +29439,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D55" s="18">
         <v>6</v>
@@ -29453,13 +29453,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D56" s="18">
         <v>6</v>
@@ -29467,13 +29467,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D57" s="18">
         <v>6</v>
@@ -29481,13 +29481,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D58" s="18">
         <v>6</v>
@@ -29681,6 +29681,11 @@
       <c r="I71" s="29"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I71">
+    <sortState ref="A2:I71">
+      <sortCondition ref="D1:D71"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/22809.xlsx
+++ b/22809.xlsx
@@ -16,7 +16,7 @@
     <sheet name="GRUPO" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#22809'!$A$1:$T$977</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#22809'!$A$1:$Q$977</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">GRUPO!$A$1:$I$71</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="226">
   <si>
     <t>Nro de comisión</t>
   </si>
@@ -708,7 +708,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,12 +740,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -890,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -947,33 +942,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1192,7 +1171,7 @@
   <dimension ref="A1:AA993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="A14:I20"/>
+      <selection activeCell="O13" sqref="A7:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1274,7 +1253,9 @@
       <c r="W1" s="3">
         <v>44865</v>
       </c>
-      <c r="X1" s="5"/>
+      <c r="X1" s="3">
+        <v>44866</v>
+      </c>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
@@ -1349,7 +1330,9 @@
       <c r="W2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="5"/>
+      <c r="X2" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
@@ -1422,7 +1405,9 @@
       <c r="W3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="5"/>
+      <c r="X3" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
@@ -1495,7 +1480,9 @@
       <c r="W4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="5"/>
+      <c r="X4" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
@@ -1568,7 +1555,9 @@
       <c r="W5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="5"/>
+      <c r="X5" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
@@ -1641,7 +1630,9 @@
       <c r="W6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X6" s="5"/>
+      <c r="X6" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
@@ -1714,7 +1705,9 @@
       <c r="W7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X7" s="5"/>
+      <c r="X7" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
@@ -1787,7 +1780,9 @@
       <c r="W8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X8" s="5"/>
+      <c r="X8" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
@@ -1860,7 +1855,9 @@
       <c r="W9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="5"/>
+      <c r="X9" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
@@ -1870,13 +1867,13 @@
         <v>22809</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -1933,7 +1930,9 @@
       <c r="W10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X10" s="5"/>
+      <c r="X10" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
@@ -1943,13 +1942,13 @@
         <v>22809</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
@@ -2006,7 +2005,9 @@
       <c r="W11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X11" s="5"/>
+      <c r="X11" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
@@ -2016,13 +2017,13 @@
         <v>22809</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -2079,7 +2080,9 @@
       <c r="W12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X12" s="5"/>
+      <c r="X12" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
@@ -2089,13 +2092,13 @@
         <v>22809</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -2152,7 +2155,9 @@
       <c r="W13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X13" s="5"/>
+      <c r="X13" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
@@ -2162,13 +2167,13 @@
         <v>22809</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -2225,7 +2230,9 @@
       <c r="W14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X14" s="5"/>
+      <c r="X14" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
@@ -2235,13 +2242,13 @@
         <v>22809</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>16</v>
@@ -2298,7 +2305,9 @@
       <c r="W15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X15" s="5"/>
+      <c r="X15" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
@@ -2308,13 +2317,13 @@
         <v>22809</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>16</v>
@@ -2371,7 +2380,9 @@
       <c r="W16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X16" s="5"/>
+      <c r="X16" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
@@ -2381,19 +2392,19 @@
         <v>22809</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>16</v>
+      <c r="F17" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>16</v>
@@ -2444,7 +2455,9 @@
       <c r="W17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X17" s="5"/>
+      <c r="X17" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
@@ -2454,19 +2467,19 @@
         <v>22809</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>15</v>
+      <c r="F18" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>16</v>
@@ -2517,7 +2530,9 @@
       <c r="W18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X18" s="5"/>
+      <c r="X18" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
@@ -2527,19 +2542,19 @@
         <v>22809</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>16</v>
+      <c r="F19" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>16</v>
@@ -2547,8 +2562,8 @@
       <c r="H19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>16</v>
+      <c r="I19" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>16</v>
@@ -2590,7 +2605,9 @@
       <c r="W19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X19" s="5"/>
+      <c r="X19" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
@@ -2600,19 +2617,19 @@
         <v>22809</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>15</v>
+      <c r="F20" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>16</v>
@@ -2620,8 +2637,8 @@
       <c r="H20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>15</v>
+      <c r="I20" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>16</v>
@@ -2663,7 +2680,9 @@
       <c r="W20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X20" s="5"/>
+      <c r="X20" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
@@ -2673,16 +2692,16 @@
         <v>22809</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>16</v>
+        <v>96</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>16</v>
@@ -2696,8 +2715,8 @@
       <c r="I21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>16</v>
+      <c r="J21" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>16</v>
@@ -2736,7 +2755,9 @@
       <c r="W21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X21" s="5"/>
+      <c r="X21" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
@@ -2746,19 +2767,19 @@
         <v>22809</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>16</v>
+      <c r="F22" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>16</v>
@@ -2769,11 +2790,11 @@
       <c r="I22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>16</v>
@@ -2809,7 +2830,9 @@
       <c r="W22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X22" s="5"/>
+      <c r="X22" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
@@ -2819,55 +2842,55 @@
         <v>22809</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R23" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R23" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="S23" s="8"/>
       <c r="T23" s="6" t="s">
@@ -2882,7 +2905,9 @@
       <c r="W23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X23" s="5"/>
+      <c r="X23" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
@@ -2892,55 +2917,55 @@
         <v>22809</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="F24" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="G24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R24" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="S24" s="8"/>
       <c r="T24" s="6" t="s">
@@ -2955,7 +2980,9 @@
       <c r="W24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X24" s="5"/>
+      <c r="X24" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
@@ -2965,13 +2992,13 @@
         <v>22809</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -3028,7 +3055,9 @@
       <c r="W25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X25" s="5"/>
+      <c r="X25" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
@@ -3038,52 +3067,52 @@
         <v>22809</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>15</v>
@@ -3101,7 +3130,9 @@
       <c r="W26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X26" s="5"/>
+      <c r="X26" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
@@ -3111,13 +3142,13 @@
         <v>22809</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>16</v>
@@ -3128,8 +3159,8 @@
       <c r="G27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>16</v>
+      <c r="H27" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>16</v>
@@ -3158,8 +3189,8 @@
       <c r="Q27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R27" s="8" t="s">
-        <v>15</v>
+      <c r="R27" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="S27" s="8"/>
       <c r="T27" s="6" t="s">
@@ -3174,7 +3205,9 @@
       <c r="W27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X27" s="5"/>
+      <c r="X27" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
@@ -3184,13 +3217,13 @@
         <v>22809</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -3198,8 +3231,8 @@
       <c r="F28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>15</v>
+      <c r="G28" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>16</v>
@@ -3213,8 +3246,8 @@
       <c r="K28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="8" t="s">
-        <v>15</v>
+      <c r="L28" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>16</v>
@@ -3231,8 +3264,8 @@
       <c r="Q28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R28" s="8" t="s">
-        <v>15</v>
+      <c r="R28" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="S28" s="8"/>
       <c r="T28" s="6" t="s">
@@ -3247,7 +3280,9 @@
       <c r="W28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X28" s="5"/>
+      <c r="X28" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
@@ -3257,22 +3292,22 @@
         <v>22809</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>16</v>
+        <v>158</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>16</v>
+      <c r="G29" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>16</v>
@@ -3301,11 +3336,11 @@
       <c r="P29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R29" s="8" t="s">
-        <v>15</v>
+      <c r="Q29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="S29" s="8"/>
       <c r="T29" s="6" t="s">
@@ -3320,7 +3355,9 @@
       <c r="W29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X29" s="5"/>
+      <c r="X29" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
@@ -3330,13 +3367,13 @@
         <v>22809</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>16</v>
@@ -3347,8 +3384,8 @@
       <c r="G30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="8" t="s">
-        <v>15</v>
+      <c r="H30" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>16</v>
@@ -3393,7 +3430,9 @@
       <c r="W30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X30" s="5"/>
+      <c r="X30" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
@@ -3403,13 +3442,13 @@
         <v>22809</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>16</v>
@@ -3423,8 +3462,8 @@
       <c r="H31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>16</v>
+      <c r="I31" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>16</v>
@@ -3466,7 +3505,9 @@
       <c r="W31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X31" s="5"/>
+      <c r="X31" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
@@ -3476,59 +3517,59 @@
         <v>22809</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="R32" s="6" t="s">
         <v>16</v>
       </c>
       <c r="S32" s="8"/>
-      <c r="T32" s="8" t="s">
-        <v>15</v>
+      <c r="T32" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="U32" s="6" t="s">
         <v>16</v>
@@ -3539,7 +3580,9 @@
       <c r="W32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X32" s="5"/>
+      <c r="X32" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
@@ -3549,34 +3592,34 @@
         <v>22809</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E33" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>16</v>
+      <c r="K33" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>16</v>
@@ -3600,8 +3643,8 @@
         <v>16</v>
       </c>
       <c r="S33" s="8"/>
-      <c r="T33" s="6" t="s">
-        <v>16</v>
+      <c r="T33" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="U33" s="6" t="s">
         <v>16</v>
@@ -3612,7 +3655,9 @@
       <c r="W33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X33" s="5"/>
+      <c r="X33" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
@@ -3622,13 +3667,13 @@
         <v>22809</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>16</v>
@@ -3685,7 +3730,9 @@
       <c r="W34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X34" s="5"/>
+      <c r="X34" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
@@ -3695,13 +3742,13 @@
         <v>22809</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
@@ -3715,8 +3762,8 @@
       <c r="H35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="8" t="s">
-        <v>15</v>
+      <c r="I35" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>16</v>
@@ -3758,7 +3805,9 @@
       <c r="W35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X35" s="5"/>
+      <c r="X35" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
@@ -3768,13 +3817,13 @@
         <v>22809</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>16</v>
@@ -3831,7 +3880,9 @@
       <c r="W36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X36" s="5"/>
+      <c r="X36" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
@@ -3841,13 +3892,13 @@
         <v>22809</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>16</v>
@@ -3864,8 +3915,8 @@
       <c r="I37" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J37" s="6" t="s">
-        <v>16</v>
+      <c r="J37" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="K37" s="6" t="s">
         <v>16</v>
@@ -3885,8 +3936,8 @@
       <c r="P37" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q37" s="8" t="s">
-        <v>15</v>
+      <c r="Q37" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="R37" s="6" t="s">
         <v>16</v>
@@ -3904,7 +3955,9 @@
       <c r="W37" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X37" s="5"/>
+      <c r="X37" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
@@ -3914,28 +3967,28 @@
         <v>22809</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>16</v>
+      <c r="F38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>15</v>
@@ -3961,12 +4014,12 @@
       <c r="Q38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R38" s="6" t="s">
-        <v>16</v>
+      <c r="R38" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="S38" s="8"/>
-      <c r="T38" s="8" t="s">
-        <v>15</v>
+      <c r="T38" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="U38" s="6" t="s">
         <v>16</v>
@@ -3977,23 +4030,25 @@
       <c r="W38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
+      <c r="X38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>22809</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>16</v>
@@ -4038,8 +4093,8 @@
         <v>16</v>
       </c>
       <c r="S39" s="8"/>
-      <c r="T39" s="6" t="s">
-        <v>16</v>
+      <c r="T39" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="U39" s="6" t="s">
         <v>16</v>
@@ -4050,7 +4105,9 @@
       <c r="W39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X39" s="5"/>
+      <c r="X39" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
@@ -4060,16 +4117,16 @@
         <v>22809</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>15</v>
+        <v>152</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>16</v>
@@ -4123,7 +4180,9 @@
       <c r="W40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X40" s="5"/>
+      <c r="X40" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
@@ -4133,13 +4192,13 @@
         <v>22809</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>16</v>
@@ -4193,10 +4252,12 @@
       <c r="V41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="W41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="X41" s="5"/>
+      <c r="W41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X41" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
@@ -4206,13 +4267,13 @@
         <v>22809</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>16</v>
@@ -4238,8 +4299,8 @@
       <c r="L42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M42" s="6" t="s">
-        <v>16</v>
+      <c r="M42" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="N42" s="6" t="s">
         <v>16</v>
@@ -4266,10 +4327,12 @@
       <c r="V42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="W42" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="X42" s="5"/>
+      <c r="W42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X42" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
@@ -4279,19 +4342,19 @@
         <v>22809</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>16</v>
+        <v>149</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>16</v>
@@ -4339,10 +4402,12 @@
       <c r="V43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="W43" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="X43" s="5"/>
+      <c r="W43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X43" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
@@ -4352,13 +4417,13 @@
         <v>22809</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>16</v>
@@ -4375,36 +4440,36 @@
       <c r="I44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q44" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K44" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O44" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P44" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q44" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="R44" s="6" t="s">
         <v>16</v>
       </c>
       <c r="S44" s="8"/>
-      <c r="T44" s="6" t="s">
-        <v>16</v>
+      <c r="T44" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="U44" s="6" t="s">
         <v>16</v>
@@ -4412,10 +4477,12 @@
       <c r="V44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="W44" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="X44" s="5"/>
+      <c r="W44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X44" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
@@ -4425,55 +4492,55 @@
         <v>22809</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E45" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q45" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R45" s="8" t="s">
-        <v>15</v>
+      <c r="R45" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="S45" s="8"/>
       <c r="T45" s="6" t="s">
@@ -4485,26 +4552,28 @@
       <c r="V45" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="W45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
+      <c r="W45" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>22809</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>16</v>
@@ -4549,19 +4618,21 @@
         <v>16</v>
       </c>
       <c r="S46" s="8"/>
-      <c r="T46" s="8" t="s">
+      <c r="T46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X46" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="U46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="V46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="W46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
@@ -4571,16 +4642,16 @@
         <v>22809</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>15</v>
+        <v>109</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>15</v>
@@ -4588,14 +4659,14 @@
       <c r="G47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>16</v>
+      <c r="H47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>16</v>
@@ -4603,8 +4674,8 @@
       <c r="L47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M47" s="6" t="s">
-        <v>16</v>
+      <c r="M47" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="N47" s="6" t="s">
         <v>16</v>
@@ -4618,23 +4689,25 @@
       <c r="Q47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R47" s="8" t="s">
+      <c r="R47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S47" s="8"/>
+      <c r="T47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X47" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="U47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="V47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="W47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
@@ -4644,13 +4717,13 @@
         <v>22809</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>16</v>
@@ -4658,8 +4731,8 @@
       <c r="F48" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>16</v>
+      <c r="G48" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>16</v>
@@ -4673,8 +4746,8 @@
       <c r="K48" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L48" s="6" t="s">
-        <v>16</v>
+      <c r="L48" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="M48" s="6" t="s">
         <v>16</v>
@@ -4691,8 +4764,8 @@
       <c r="Q48" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R48" s="6" t="s">
-        <v>16</v>
+      <c r="R48" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="S48" s="8"/>
       <c r="T48" s="6" t="s">
@@ -4707,7 +4780,9 @@
       <c r="W48" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X48" s="5"/>
+      <c r="X48" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
@@ -4717,32 +4792,32 @@
         <v>22809</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>221</v>
+        <v>135</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J49" s="8" t="s">
+      <c r="F49" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="G49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="K49" s="6" t="s">
         <v>16</v>
       </c>
@@ -4764,15 +4839,13 @@
       <c r="Q49" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R49" s="8" t="s">
+      <c r="R49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S49" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T49" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="U49" s="6" t="s">
         <v>16</v>
       </c>
@@ -4782,7 +4855,9 @@
       <c r="W49" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X49" s="5"/>
+      <c r="X49" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
@@ -4792,13 +4867,13 @@
         <v>22809</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>16</v>
@@ -4852,10 +4927,12 @@
       <c r="V50" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="W50" s="8" t="s">
+      <c r="W50" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
@@ -4865,16 +4942,16 @@
         <v>22809</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>16</v>
+        <v>52</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>16</v>
@@ -4897,8 +4974,8 @@
       <c r="L51" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M51" s="8" t="s">
-        <v>15</v>
+      <c r="M51" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="N51" s="6" t="s">
         <v>16</v>
@@ -4925,10 +5002,12 @@
       <c r="V51" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="W51" s="8" t="s">
+      <c r="W51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X51" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
@@ -4938,13 +5017,13 @@
         <v>22809</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>16</v>
@@ -4982,26 +5061,28 @@
       <c r="P52" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q52" s="8" t="s">
+      <c r="Q52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S52" s="8"/>
+      <c r="T52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X52" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R52" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="U52" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="V52" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="W52" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
@@ -5011,13 +5092,13 @@
         <v>22809</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>15</v>
@@ -5058,12 +5139,12 @@
       <c r="Q53" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R53" s="6" t="s">
-        <v>16</v>
+      <c r="R53" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="S53" s="8"/>
-      <c r="T53" s="6" t="s">
-        <v>16</v>
+      <c r="T53" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="U53" s="6" t="s">
         <v>16</v>
@@ -5071,10 +5152,12 @@
       <c r="V53" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="W53" s="8" t="s">
+      <c r="W53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X53" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
@@ -5084,57 +5167,59 @@
         <v>22809</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E54" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="H54" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K54" s="8" t="s">
+      <c r="J54" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="K54" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="L54" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M54" s="8" t="s">
+      <c r="M54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S54" s="8"/>
+      <c r="S54" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="T54" s="6" t="s">
         <v>16</v>
       </c>
@@ -5144,10 +5229,12 @@
       <c r="V54" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="W54" s="8" t="s">
+      <c r="W54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
@@ -5157,13 +5244,13 @@
         <v>22809</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>16</v>
@@ -5220,7 +5307,9 @@
       <c r="W55" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X55" s="5"/>
+      <c r="X55" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
@@ -5230,13 +5319,13 @@
         <v>22809</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>15</v>
@@ -5256,14 +5345,14 @@
       <c r="J56" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K56" s="6" t="s">
-        <v>16</v>
+      <c r="K56" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M56" s="6" t="s">
-        <v>16</v>
+      <c r="M56" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="N56" s="6" t="s">
         <v>16</v>
@@ -5293,7 +5382,9 @@
       <c r="W56" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X56" s="5"/>
+      <c r="X56" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
@@ -5303,16 +5394,16 @@
         <v>22809</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>16</v>
+        <v>61</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>16</v>
@@ -5347,8 +5438,8 @@
       <c r="P57" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q57" s="8" t="s">
-        <v>15</v>
+      <c r="Q57" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="R57" s="6" t="s">
         <v>16</v>
@@ -5366,7 +5457,9 @@
       <c r="W57" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X57" s="5"/>
+      <c r="X57" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
@@ -5439,7 +5532,9 @@
       <c r="W58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X58" s="5"/>
+      <c r="X58" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
@@ -5512,7 +5607,9 @@
       <c r="W59" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X59" s="5"/>
+      <c r="X59" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
@@ -5585,7 +5682,9 @@
       <c r="W60" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X60" s="5"/>
+      <c r="X60" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
@@ -5658,7 +5757,9 @@
       <c r="W61" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X61" s="5"/>
+      <c r="X61" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
       <c r="AA61" s="5"/>
@@ -5731,7 +5832,9 @@
       <c r="W62" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X62" s="5"/>
+      <c r="X62" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
@@ -5804,7 +5907,9 @@
       <c r="W63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X63" s="5"/>
+      <c r="X63" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
       <c r="AA63" s="5"/>
@@ -5877,7 +5982,9 @@
       <c r="W64" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X64" s="5"/>
+      <c r="X64" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
@@ -5950,7 +6057,9 @@
       <c r="W65" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X65" s="5"/>
+      <c r="X65" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="5"/>
@@ -6023,7 +6132,9 @@
       <c r="W66" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X66" s="5"/>
+      <c r="X66" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
@@ -6096,7 +6207,9 @@
       <c r="W67" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X67" s="5"/>
+      <c r="X67" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
@@ -6169,7 +6282,9 @@
       <c r="W68" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X68" s="9"/>
+      <c r="X68" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
@@ -6242,7 +6357,9 @@
       <c r="W69" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X69" s="5"/>
+      <c r="X69" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
@@ -6315,156 +6432,162 @@
       <c r="W70" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X70" s="5"/>
+      <c r="X70" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="5"/>
     </row>
     <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="20">
+      <c r="A71" s="10">
         <v>22809</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D71" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E71" s="22" t="s">
+      <c r="E71" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H71" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I71" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="J71" s="24" t="s">
+      <c r="F71" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K71" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L71" s="24" t="s">
+      <c r="K71" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L71" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="M71" s="24" t="s">
+      <c r="M71" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="N71" s="24" t="s">
+      <c r="N71" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="O71" s="24" t="s">
+      <c r="O71" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="P71" s="24" t="s">
+      <c r="P71" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q71" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="R71" s="24" t="s">
+      <c r="Q71" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R71" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="S71" s="24"/>
-      <c r="T71" s="24" t="s">
+      <c r="S71" s="21"/>
+      <c r="T71" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="U71" s="24" t="s">
+      <c r="U71" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="V71" s="24" t="s">
+      <c r="V71" s="21" t="s">
         <v>15</v>
       </c>
       <c r="W71" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X71" s="5"/>
+      <c r="X71" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
     </row>
     <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="25">
+      <c r="A72" s="10">
         <v>22809</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D72" s="26" t="s">
+      <c r="D72" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E72" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H72" s="28"/>
-      <c r="I72" s="29" t="s">
+      <c r="E72" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="23"/>
+      <c r="I72" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J72" s="29" t="s">
+      <c r="J72" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K72" s="29" t="s">
+      <c r="K72" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="L72" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="M72" s="29" t="s">
+      <c r="L72" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="N72" s="27" t="s">
+      <c r="N72" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="O72" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="P72" s="27" t="s">
+      <c r="O72" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="P72" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="Q72" s="29" t="s">
+      <c r="Q72" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="R72" s="29" t="s">
+      <c r="R72" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="S72" s="29" t="s">
+      <c r="S72" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="T72" s="29" t="s">
+      <c r="T72" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="U72" s="28" t="s">
+      <c r="U72" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="V72" s="28" t="s">
+      <c r="V72" s="23" t="s">
         <v>15</v>
       </c>
       <c r="W72" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X72" s="30"/>
-      <c r="Y72" s="30"/>
-      <c r="Z72" s="30"/>
-      <c r="AA72" s="30"/>
+      <c r="X72" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="9"/>
+      <c r="AA72" s="9"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
@@ -33178,9 +33301,9 @@
       <c r="AA993" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T977">
+  <autoFilter ref="A1:Q977">
     <sortState ref="A2:Z994">
-      <sortCondition ref="S1:S994"/>
+      <sortCondition ref="P1:P994"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
